--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,11 @@
           <t>2025-07-02</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +471,9 @@
       <c r="C2" t="n">
         <v>41</v>
       </c>
+      <c r="D2" t="n">
+        <v>40.31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,6 +487,9 @@
       <c r="C3" t="n">
         <v>60.6</v>
       </c>
+      <c r="D3" t="n">
+        <v>60.26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -492,6 +503,9 @@
       <c r="C4" t="n">
         <v>40.11</v>
       </c>
+      <c r="D4" t="n">
+        <v>40.11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,6 +519,9 @@
       <c r="C5" t="n">
         <v>53.39</v>
       </c>
+      <c r="D5" t="n">
+        <v>53.39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -518,6 +535,9 @@
       <c r="C6" t="n">
         <v>47.42</v>
       </c>
+      <c r="D6" t="n">
+        <v>47.42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -531,6 +551,9 @@
       <c r="C7" t="n">
         <v>53.3</v>
       </c>
+      <c r="D7" t="n">
+        <v>53.81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -544,6 +567,9 @@
       <c r="C8" t="n">
         <v>53.81</v>
       </c>
+      <c r="D8" t="n">
+        <v>54.83</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -557,6 +583,9 @@
       <c r="C9" t="n">
         <v>65.75</v>
       </c>
+      <c r="D9" t="n">
+        <v>65.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -570,6 +599,9 @@
       <c r="C10" t="n">
         <v>53.81</v>
       </c>
+      <c r="D10" t="n">
+        <v>54.73</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -583,6 +615,9 @@
       <c r="C11" t="n">
         <v>58.25</v>
       </c>
+      <c r="D11" t="n">
+        <v>59.37</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -596,6 +631,9 @@
       <c r="C12" t="n">
         <v>47.11</v>
       </c>
+      <c r="D12" t="n">
+        <v>46.97</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -609,6 +647,9 @@
       <c r="C13" t="n">
         <v>59.78</v>
       </c>
+      <c r="D13" t="n">
+        <v>60.29</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -622,6 +663,9 @@
       <c r="C14" t="n">
         <v>64.19</v>
       </c>
+      <c r="D14" t="n">
+        <v>62.84</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -635,6 +679,9 @@
       <c r="C15" t="n">
         <v>53.38</v>
       </c>
+      <c r="D15" t="n">
+        <v>52.63</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -648,6 +695,9 @@
       <c r="C16" t="n">
         <v>46.21</v>
       </c>
+      <c r="D16" t="n">
+        <v>46.21</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -661,6 +711,9 @@
       <c r="C17" t="n">
         <v>40.62</v>
       </c>
+      <c r="D17" t="n">
+        <v>40.62</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -674,6 +727,9 @@
       <c r="C18" t="n">
         <v>50.81</v>
       </c>
+      <c r="D18" t="n">
+        <v>49.84</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -687,6 +743,9 @@
       <c r="C19" t="n">
         <v>34.4</v>
       </c>
+      <c r="D19" t="n">
+        <v>35.09</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -700,6 +759,9 @@
       <c r="C20" t="n">
         <v>37.97</v>
       </c>
+      <c r="D20" t="n">
+        <v>37.97</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -713,6 +775,9 @@
       <c r="C21" t="n">
         <v>54.28</v>
       </c>
+      <c r="D21" t="n">
+        <v>54.28</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -726,6 +791,9 @@
       <c r="C22" t="n">
         <v>58.57</v>
       </c>
+      <c r="D22" t="n">
+        <v>58.57</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -739,6 +807,9 @@
       <c r="C23" t="n">
         <v>63.03</v>
       </c>
+      <c r="D23" t="n">
+        <v>61.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -752,6 +823,9 @@
       <c r="C24" t="n">
         <v>58.19</v>
       </c>
+      <c r="D24" t="n">
+        <v>58.74</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -765,6 +839,9 @@
       <c r="C25" t="n">
         <v>39.53</v>
       </c>
+      <c r="D25" t="n">
+        <v>39.53</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -778,6 +855,9 @@
       <c r="C26" t="n">
         <v>47.59</v>
       </c>
+      <c r="D26" t="n">
+        <v>47.59</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -791,6 +871,9 @@
       <c r="C27" t="n">
         <v>50.83</v>
       </c>
+      <c r="D27" t="n">
+        <v>50.83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -804,6 +887,9 @@
       <c r="C28" t="n">
         <v>46.08</v>
       </c>
+      <c r="D28" t="n">
+        <v>46.08</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -817,6 +903,9 @@
       <c r="C29" t="n">
         <v>36.39</v>
       </c>
+      <c r="D29" t="n">
+        <v>36.39</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -830,6 +919,9 @@
       <c r="C30" t="n">
         <v>63.46</v>
       </c>
+      <c r="D30" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -843,6 +935,9 @@
       <c r="C31" t="n">
         <v>34.51</v>
       </c>
+      <c r="D31" t="n">
+        <v>34.51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -856,6 +951,9 @@
       <c r="C32" t="n">
         <v>47.63</v>
       </c>
+      <c r="D32" t="n">
+        <v>47.63</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -869,6 +967,9 @@
       <c r="C33" t="n">
         <v>42.33</v>
       </c>
+      <c r="D33" t="n">
+        <v>43.22</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -881,6 +982,9 @@
       </c>
       <c r="C34" t="n">
         <v>45.67</v>
+      </c>
+      <c r="D34" t="n">
+        <v>46.64</v>
       </c>
     </row>
   </sheetData>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>2025-07-08</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,6 +479,9 @@
       <c r="D2" t="n">
         <v>40.31</v>
       </c>
+      <c r="E2" t="n">
+        <v>40.31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -490,6 +498,9 @@
       <c r="D3" t="n">
         <v>60.26</v>
       </c>
+      <c r="E3" t="n">
+        <v>60.26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -506,6 +517,9 @@
       <c r="D4" t="n">
         <v>40.11</v>
       </c>
+      <c r="E4" t="n">
+        <v>40.11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -522,6 +536,9 @@
       <c r="D5" t="n">
         <v>53.39</v>
       </c>
+      <c r="E5" t="n">
+        <v>53.39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -538,6 +555,9 @@
       <c r="D6" t="n">
         <v>47.42</v>
       </c>
+      <c r="E6" t="n">
+        <v>47.42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -554,6 +574,9 @@
       <c r="D7" t="n">
         <v>53.81</v>
       </c>
+      <c r="E7" t="n">
+        <v>53.81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -570,6 +593,9 @@
       <c r="D8" t="n">
         <v>54.83</v>
       </c>
+      <c r="E8" t="n">
+        <v>54.83</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -586,6 +612,9 @@
       <c r="D9" t="n">
         <v>65.2</v>
       </c>
+      <c r="E9" t="n">
+        <v>65.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -602,6 +631,9 @@
       <c r="D10" t="n">
         <v>54.73</v>
       </c>
+      <c r="E10" t="n">
+        <v>54.73</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -618,6 +650,9 @@
       <c r="D11" t="n">
         <v>59.37</v>
       </c>
+      <c r="E11" t="n">
+        <v>59.37</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -634,6 +669,9 @@
       <c r="D12" t="n">
         <v>46.97</v>
       </c>
+      <c r="E12" t="n">
+        <v>46.97</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -650,6 +688,9 @@
       <c r="D13" t="n">
         <v>60.29</v>
       </c>
+      <c r="E13" t="n">
+        <v>60.29</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -666,6 +707,9 @@
       <c r="D14" t="n">
         <v>62.84</v>
       </c>
+      <c r="E14" t="n">
+        <v>64.28</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -682,6 +726,9 @@
       <c r="D15" t="n">
         <v>52.63</v>
       </c>
+      <c r="E15" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -698,6 +745,9 @@
       <c r="D16" t="n">
         <v>46.21</v>
       </c>
+      <c r="E16" t="n">
+        <v>46.21</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -714,6 +764,9 @@
       <c r="D17" t="n">
         <v>40.62</v>
       </c>
+      <c r="E17" t="n">
+        <v>40.62</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -730,6 +783,9 @@
       <c r="D18" t="n">
         <v>49.84</v>
       </c>
+      <c r="E18" t="n">
+        <v>48.81</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -746,6 +802,9 @@
       <c r="D19" t="n">
         <v>35.09</v>
       </c>
+      <c r="E19" t="n">
+        <v>35.09</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -762,6 +821,9 @@
       <c r="D20" t="n">
         <v>37.97</v>
       </c>
+      <c r="E20" t="n">
+        <v>37.97</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -778,6 +840,9 @@
       <c r="D21" t="n">
         <v>54.28</v>
       </c>
+      <c r="E21" t="n">
+        <v>54.28</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -794,6 +859,9 @@
       <c r="D22" t="n">
         <v>58.57</v>
       </c>
+      <c r="E22" t="n">
+        <v>58.57</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -810,6 +878,9 @@
       <c r="D23" t="n">
         <v>61.6</v>
       </c>
+      <c r="E23" t="n">
+        <v>61.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -826,6 +897,9 @@
       <c r="D24" t="n">
         <v>58.74</v>
       </c>
+      <c r="E24" t="n">
+        <v>58.74</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -842,6 +916,9 @@
       <c r="D25" t="n">
         <v>39.53</v>
       </c>
+      <c r="E25" t="n">
+        <v>39.53</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -858,6 +935,9 @@
       <c r="D26" t="n">
         <v>47.59</v>
       </c>
+      <c r="E26" t="n">
+        <v>47.59</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -874,6 +954,9 @@
       <c r="D27" t="n">
         <v>50.83</v>
       </c>
+      <c r="E27" t="n">
+        <v>50.83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -890,6 +973,9 @@
       <c r="D28" t="n">
         <v>46.08</v>
       </c>
+      <c r="E28" t="n">
+        <v>46.08</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -906,6 +992,9 @@
       <c r="D29" t="n">
         <v>36.39</v>
       </c>
+      <c r="E29" t="n">
+        <v>36.39</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -922,6 +1011,9 @@
       <c r="D30" t="n">
         <v>62.5</v>
       </c>
+      <c r="E30" t="n">
+        <v>61.06</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -938,6 +1030,9 @@
       <c r="D31" t="n">
         <v>34.51</v>
       </c>
+      <c r="E31" t="n">
+        <v>34.51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -954,6 +1049,9 @@
       <c r="D32" t="n">
         <v>47.63</v>
       </c>
+      <c r="E32" t="n">
+        <v>47.63</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -970,6 +1068,9 @@
       <c r="D33" t="n">
         <v>43.22</v>
       </c>
+      <c r="E33" t="n">
+        <v>43.22</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -984,6 +1085,9 @@
         <v>45.67</v>
       </c>
       <c r="D34" t="n">
+        <v>46.64</v>
+      </c>
+      <c r="E34" t="n">
         <v>46.64</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,11 @@
           <t>2025-07-13</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,6 +487,9 @@
       <c r="E2" t="n">
         <v>40.31</v>
       </c>
+      <c r="F2" t="n">
+        <v>40.31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -501,6 +509,9 @@
       <c r="E3" t="n">
         <v>60.26</v>
       </c>
+      <c r="F3" t="n">
+        <v>60.26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,6 +531,9 @@
       <c r="E4" t="n">
         <v>40.11</v>
       </c>
+      <c r="F4" t="n">
+        <v>40.11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -539,6 +553,9 @@
       <c r="E5" t="n">
         <v>53.39</v>
       </c>
+      <c r="F5" t="n">
+        <v>53.39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -558,6 +575,9 @@
       <c r="E6" t="n">
         <v>47.42</v>
       </c>
+      <c r="F6" t="n">
+        <v>47.42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -577,6 +597,9 @@
       <c r="E7" t="n">
         <v>53.81</v>
       </c>
+      <c r="F7" t="n">
+        <v>53.81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -596,6 +619,9 @@
       <c r="E8" t="n">
         <v>54.83</v>
       </c>
+      <c r="F8" t="n">
+        <v>54.83</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -615,6 +641,9 @@
       <c r="E9" t="n">
         <v>65.2</v>
       </c>
+      <c r="F9" t="n">
+        <v>66.56999999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -634,6 +663,9 @@
       <c r="E10" t="n">
         <v>54.73</v>
       </c>
+      <c r="F10" t="n">
+        <v>54.73</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -653,6 +685,9 @@
       <c r="E11" t="n">
         <v>59.37</v>
       </c>
+      <c r="F11" t="n">
+        <v>59.37</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -672,6 +707,9 @@
       <c r="E12" t="n">
         <v>46.97</v>
       </c>
+      <c r="F12" t="n">
+        <v>46.97</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -691,6 +729,9 @@
       <c r="E13" t="n">
         <v>60.29</v>
       </c>
+      <c r="F13" t="n">
+        <v>60.29</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -710,6 +751,9 @@
       <c r="E14" t="n">
         <v>64.28</v>
       </c>
+      <c r="F14" t="n">
+        <v>64.28</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -729,6 +773,9 @@
       <c r="E15" t="n">
         <v>53.66</v>
       </c>
+      <c r="F15" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -748,6 +795,9 @@
       <c r="E16" t="n">
         <v>46.21</v>
       </c>
+      <c r="F16" t="n">
+        <v>46.21</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -767,6 +817,9 @@
       <c r="E17" t="n">
         <v>40.62</v>
       </c>
+      <c r="F17" t="n">
+        <v>40.62</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -786,6 +839,9 @@
       <c r="E18" t="n">
         <v>48.81</v>
       </c>
+      <c r="F18" t="n">
+        <v>48.81</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -805,6 +861,9 @@
       <c r="E19" t="n">
         <v>35.09</v>
       </c>
+      <c r="F19" t="n">
+        <v>35.09</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -824,6 +883,9 @@
       <c r="E20" t="n">
         <v>37.97</v>
       </c>
+      <c r="F20" t="n">
+        <v>37.97</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -843,6 +905,9 @@
       <c r="E21" t="n">
         <v>54.28</v>
       </c>
+      <c r="F21" t="n">
+        <v>54.28</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -862,6 +927,9 @@
       <c r="E22" t="n">
         <v>58.57</v>
       </c>
+      <c r="F22" t="n">
+        <v>58.57</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -881,6 +949,9 @@
       <c r="E23" t="n">
         <v>61.6</v>
       </c>
+      <c r="F23" t="n">
+        <v>60.23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -900,6 +971,9 @@
       <c r="E24" t="n">
         <v>58.74</v>
       </c>
+      <c r="F24" t="n">
+        <v>58.74</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -919,6 +993,9 @@
       <c r="E25" t="n">
         <v>39.53</v>
       </c>
+      <c r="F25" t="n">
+        <v>39.53</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -938,6 +1015,9 @@
       <c r="E26" t="n">
         <v>47.59</v>
       </c>
+      <c r="F26" t="n">
+        <v>47.59</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -957,6 +1037,9 @@
       <c r="E27" t="n">
         <v>50.83</v>
       </c>
+      <c r="F27" t="n">
+        <v>50.83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -976,6 +1059,9 @@
       <c r="E28" t="n">
         <v>46.08</v>
       </c>
+      <c r="F28" t="n">
+        <v>46.08</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -995,6 +1081,9 @@
       <c r="E29" t="n">
         <v>36.39</v>
       </c>
+      <c r="F29" t="n">
+        <v>36.39</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1014,6 +1103,9 @@
       <c r="E30" t="n">
         <v>61.06</v>
       </c>
+      <c r="F30" t="n">
+        <v>61.06</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1033,6 +1125,9 @@
       <c r="E31" t="n">
         <v>34.51</v>
       </c>
+      <c r="F31" t="n">
+        <v>34.51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1052,6 +1147,9 @@
       <c r="E32" t="n">
         <v>47.63</v>
       </c>
+      <c r="F32" t="n">
+        <v>47.63</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1071,6 +1169,9 @@
       <c r="E33" t="n">
         <v>43.22</v>
       </c>
+      <c r="F33" t="n">
+        <v>43.22</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1088,6 +1189,9 @@
         <v>46.64</v>
       </c>
       <c r="E34" t="n">
+        <v>46.64</v>
+      </c>
+      <c r="F34" t="n">
         <v>46.64</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>2025-07-17</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +491,9 @@
       <c r="F2" t="n">
         <v>39.94</v>
       </c>
+      <c r="G2" t="n">
+        <v>39.94</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,6 +516,9 @@
       <c r="F3" t="n">
         <v>62.79</v>
       </c>
+      <c r="G3" t="n">
+        <v>62.79</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,6 +541,9 @@
       <c r="F4" t="n">
         <v>39.13</v>
       </c>
+      <c r="G4" t="n">
+        <v>39.13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -552,6 +566,9 @@
       <c r="F5" t="n">
         <v>53.21</v>
       </c>
+      <c r="G5" t="n">
+        <v>53.21</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -574,6 +591,9 @@
       <c r="F6" t="n">
         <v>47.91</v>
       </c>
+      <c r="G6" t="n">
+        <v>47.91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -596,6 +616,9 @@
       <c r="F7" t="n">
         <v>54.7</v>
       </c>
+      <c r="G7" t="n">
+        <v>54.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -618,6 +641,9 @@
       <c r="F8" t="n">
         <v>56.17</v>
       </c>
+      <c r="G8" t="n">
+        <v>56.17</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -640,6 +666,9 @@
       <c r="F9" t="n">
         <v>67.37</v>
       </c>
+      <c r="G9" t="n">
+        <v>67.37</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -662,6 +691,9 @@
       <c r="F10" t="n">
         <v>55.48</v>
       </c>
+      <c r="G10" t="n">
+        <v>55.48</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -684,6 +716,9 @@
       <c r="F11" t="n">
         <v>61.15</v>
       </c>
+      <c r="G11" t="n">
+        <v>61.15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -706,6 +741,9 @@
       <c r="F12" t="n">
         <v>46.71</v>
       </c>
+      <c r="G12" t="n">
+        <v>46.71</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -728,6 +766,9 @@
       <c r="F13" t="n">
         <v>62.23</v>
       </c>
+      <c r="G13" t="n">
+        <v>62.23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -750,6 +791,9 @@
       <c r="F14" t="n">
         <v>66.09</v>
       </c>
+      <c r="G14" t="n">
+        <v>66.09</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -772,6 +816,9 @@
       <c r="F15" t="n">
         <v>53.08</v>
       </c>
+      <c r="G15" t="n">
+        <v>53.08</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -794,6 +841,9 @@
       <c r="F16" t="n">
         <v>45.64</v>
       </c>
+      <c r="G16" t="n">
+        <v>45.64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -816,6 +866,9 @@
       <c r="F17" t="n">
         <v>38.33</v>
       </c>
+      <c r="G17" t="n">
+        <v>38.33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -838,6 +891,9 @@
       <c r="F18" t="n">
         <v>48.57</v>
       </c>
+      <c r="G18" t="n">
+        <v>48.57</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -860,6 +916,9 @@
       <c r="F19" t="n">
         <v>33.71</v>
       </c>
+      <c r="G19" t="n">
+        <v>33.71</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -882,6 +941,9 @@
       <c r="F20" t="n">
         <v>36.76</v>
       </c>
+      <c r="G20" t="n">
+        <v>36.76</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -904,6 +966,9 @@
       <c r="F21" t="n">
         <v>54.63</v>
       </c>
+      <c r="G21" t="n">
+        <v>54.63</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -926,6 +991,9 @@
       <c r="F22" t="n">
         <v>60.16</v>
       </c>
+      <c r="G22" t="n">
+        <v>60.16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -948,6 +1016,9 @@
       <c r="F23" t="n">
         <v>60.56</v>
       </c>
+      <c r="G23" t="n">
+        <v>60.56</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -970,6 +1041,9 @@
       <c r="F24" t="n">
         <v>59.12</v>
       </c>
+      <c r="G24" t="n">
+        <v>59.12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -992,6 +1066,9 @@
       <c r="F25" t="n">
         <v>37.58</v>
       </c>
+      <c r="G25" t="n">
+        <v>37.58</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1014,6 +1091,9 @@
       <c r="F26" t="n">
         <v>46.02</v>
       </c>
+      <c r="G26" t="n">
+        <v>46.02</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1036,6 +1116,9 @@
       <c r="F27" t="n">
         <v>51.72</v>
       </c>
+      <c r="G27" t="n">
+        <v>51.72</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1058,6 +1141,9 @@
       <c r="F28" t="n">
         <v>46.13</v>
       </c>
+      <c r="G28" t="n">
+        <v>46.13</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1080,6 +1166,9 @@
       <c r="F29" t="n">
         <v>34.89</v>
       </c>
+      <c r="G29" t="n">
+        <v>34.89</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1102,6 +1191,9 @@
       <c r="F30" t="n">
         <v>61.98</v>
       </c>
+      <c r="G30" t="n">
+        <v>61.98</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1124,6 +1216,9 @@
       <c r="F31" t="n">
         <v>32.45</v>
       </c>
+      <c r="G31" t="n">
+        <v>32.45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1146,6 +1241,9 @@
       <c r="F32" t="n">
         <v>46.59</v>
       </c>
+      <c r="G32" t="n">
+        <v>46.59</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1168,6 +1266,9 @@
       <c r="F33" t="n">
         <v>42.85</v>
       </c>
+      <c r="G33" t="n">
+        <v>42.85</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1188,6 +1289,9 @@
         <v>46.64</v>
       </c>
       <c r="F34" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="G34" t="n">
         <v>46.35</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -1,159 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thmsw\OneDrive\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6AC04F-F40D-4F05-93E9-DE77718D03C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>2025-07-22</t>
-  </si>
-  <si>
-    <t>Antrim</t>
-  </si>
-  <si>
-    <t>Armagh</t>
-  </si>
-  <si>
-    <t>Carlow</t>
-  </si>
-  <si>
-    <t>Cavan</t>
-  </si>
-  <si>
-    <t>Clare</t>
-  </si>
-  <si>
-    <t>Cork</t>
-  </si>
-  <si>
-    <t>Derry</t>
-  </si>
-  <si>
-    <t>Donegal</t>
-  </si>
-  <si>
-    <t>Down</t>
-  </si>
-  <si>
-    <t>Dublin</t>
-  </si>
-  <si>
-    <t>Fermanagh</t>
-  </si>
-  <si>
-    <t>Galway</t>
-  </si>
-  <si>
-    <t>Kerry</t>
-  </si>
-  <si>
-    <t>Kildare</t>
-  </si>
-  <si>
-    <t>Laois</t>
-  </si>
-  <si>
-    <t>Leitrim</t>
-  </si>
-  <si>
-    <t>Limerick</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Longford</t>
-  </si>
-  <si>
-    <t>Louth</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>Meath</t>
-  </si>
-  <si>
-    <t>Monaghan</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Offaly</t>
-  </si>
-  <si>
-    <t>Roscommon</t>
-  </si>
-  <si>
-    <t>Sligo</t>
-  </si>
-  <si>
-    <t>Tipperary</t>
-  </si>
-  <si>
-    <t>Tyrone</t>
-  </si>
-  <si>
-    <t>Waterford</t>
-  </si>
-  <si>
-    <t>Westmeath</t>
-  </si>
-  <si>
-    <t>Wexford</t>
-  </si>
-  <si>
-    <t>Wicklow</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -168,46 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -495,494 +426,669 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Antrim</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>40</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>39.94</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>39.83</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+      <c r="E2" t="n">
+        <v>39.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Armagh</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>60.62</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>62.79</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>63.14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+      <c r="E3" t="n">
+        <v>63.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Carlow</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>40</v>
       </c>
-      <c r="C4">
-        <v>39.130000000000003</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>39.13</v>
+      </c>
+      <c r="D4" t="n">
         <v>38.71</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+      <c r="E4" t="n">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cavan</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>46.88</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>53.21</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>53.48</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+      <c r="E5" t="n">
+        <v>53.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Clare</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>53.75</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>47.91</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>48.06</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+      <c r="E6" t="n">
+        <v>48.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cork</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>53.75</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>54.7</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>54.91</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+      <c r="E7" t="n">
+        <v>55.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Derry</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>46.88</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>56.17</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>56.58</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
+      <c r="E8" t="n">
+        <v>56.89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Donegal</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>60.62</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>67.37</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>67.62</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
+      <c r="E9" t="n">
+        <v>67.83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>53.75</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>55.48</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>55.64</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
+      <c r="E10" t="n">
+        <v>55.69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>60.62</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>61.15</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>61.55</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
+      <c r="E11" t="n">
+        <v>61.86</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fermanagh</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>46.88</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>46.71</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>46.65</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
+      <c r="E12" t="n">
+        <v>46.47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Galway</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>60.62</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>62.23</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>62.58</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
+      <c r="E13" t="n">
+        <v>62.83</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kerry</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>60.62</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>66.09</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>66.44</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
+      <c r="E14" t="n">
+        <v>66.73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kildare</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>53.75</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>53.08</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>53.11</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
+      <c r="E15" t="n">
+        <v>52.95</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Laois</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>53.75</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>45.64</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>45.63</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
+      <c r="E16" t="n">
+        <v>45.46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Leitrim</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>40</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>38.33</v>
       </c>
-      <c r="D17">
-        <v>38.159999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
+      <c r="D17" t="n">
+        <v>38.16</v>
+      </c>
+      <c r="E17" t="n">
+        <v>37.94</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Limerick</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>46.88</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>48.57</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>48.42</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
+      <c r="E18" t="n">
+        <v>48.26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>40</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>33.71</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>33.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
+      <c r="E19" t="n">
+        <v>33.06</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Longford</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>46.88</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>36.76</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>36.28</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
+      <c r="E20" t="n">
+        <v>36.05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Louth</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>40</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>54.63</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>54.79</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
+      <c r="E21" t="n">
+        <v>54.84</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mayo</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>53.75</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>60.16</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>60.51</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
+      <c r="E22" t="n">
+        <v>60.85</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Meath</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>53.75</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>60.56</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>60.76</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
+      <c r="E23" t="n">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Monaghan</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>60.62</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>59.12</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>59.32</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
+      <c r="E24" t="n">
+        <v>59.43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>40</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>37.58</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>36.97</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
+      <c r="E25" t="n">
+        <v>36.73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Offaly</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>46.88</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>46.02</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>45.98</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
+      <c r="E26" t="n">
+        <v>45.78</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Roscommon</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>60.62</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>51.72</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
+      <c r="E27" t="n">
+        <v>52.06</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sligo</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>40</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>46.13</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>46.18</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
+      <c r="E28" t="n">
+        <v>46.01</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tipperary</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>46.88</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>34.89</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>34.26</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
+      <c r="E29" t="n">
+        <v>34.12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tyrone</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>60.62</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>61.98</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>62.29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
+      <c r="E30" t="n">
+        <v>62.59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Waterford</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>40</v>
       </c>
-      <c r="C31">
-        <v>32.450000000000003</v>
-      </c>
-      <c r="D31">
+      <c r="C31" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="D31" t="n">
         <v>31.57</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
+      <c r="E31" t="n">
+        <v>31.42</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Westmeath</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>53.75</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>46.59</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>46.66</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
+      <c r="E32" t="n">
+        <v>46.53</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Wexford</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>40</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>42.85</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>42.59</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
+      <c r="E33" t="n">
+        <v>42.41</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Wicklow</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
         <v>46.88</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>46.35</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>46.18</v>
+      </c>
+      <c r="E34" t="n">
+        <v>45.98</v>
       </c>
     </row>
   </sheetData>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,11 @@
           <t>2025-07-23</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,6 +487,9 @@
       <c r="E2" t="n">
         <v>39.66</v>
       </c>
+      <c r="F2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -501,6 +509,9 @@
       <c r="E3" t="n">
         <v>63.46</v>
       </c>
+      <c r="F3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,6 +531,9 @@
       <c r="E4" t="n">
         <v>38.5</v>
       </c>
+      <c r="F4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -539,6 +553,9 @@
       <c r="E5" t="n">
         <v>53.66</v>
       </c>
+      <c r="F5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -558,6 +575,9 @@
       <c r="E6" t="n">
         <v>48.01</v>
       </c>
+      <c r="F6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -577,6 +597,9 @@
       <c r="E7" t="n">
         <v>55.04</v>
       </c>
+      <c r="F7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -596,6 +619,9 @@
       <c r="E8" t="n">
         <v>56.89</v>
       </c>
+      <c r="F8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -615,6 +641,9 @@
       <c r="E9" t="n">
         <v>67.83</v>
       </c>
+      <c r="F9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -634,6 +663,9 @@
       <c r="E10" t="n">
         <v>55.69</v>
       </c>
+      <c r="F10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -653,6 +685,9 @@
       <c r="E11" t="n">
         <v>61.86</v>
       </c>
+      <c r="F11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -672,6 +707,9 @@
       <c r="E12" t="n">
         <v>46.47</v>
       </c>
+      <c r="F12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -691,6 +729,9 @@
       <c r="E13" t="n">
         <v>62.83</v>
       </c>
+      <c r="F13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -710,6 +751,9 @@
       <c r="E14" t="n">
         <v>66.73</v>
       </c>
+      <c r="F14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -729,6 +773,9 @@
       <c r="E15" t="n">
         <v>52.95</v>
       </c>
+      <c r="F15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -748,6 +795,9 @@
       <c r="E16" t="n">
         <v>45.46</v>
       </c>
+      <c r="F16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -767,6 +817,9 @@
       <c r="E17" t="n">
         <v>37.94</v>
       </c>
+      <c r="F17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -786,6 +839,9 @@
       <c r="E18" t="n">
         <v>48.26</v>
       </c>
+      <c r="F18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -805,6 +861,9 @@
       <c r="E19" t="n">
         <v>33.06</v>
       </c>
+      <c r="F19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -824,6 +883,9 @@
       <c r="E20" t="n">
         <v>36.05</v>
       </c>
+      <c r="F20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -843,6 +905,9 @@
       <c r="E21" t="n">
         <v>54.84</v>
       </c>
+      <c r="F21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -862,6 +927,9 @@
       <c r="E22" t="n">
         <v>60.85</v>
       </c>
+      <c r="F22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -881,6 +949,9 @@
       <c r="E23" t="n">
         <v>60.9</v>
       </c>
+      <c r="F23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -900,6 +971,9 @@
       <c r="E24" t="n">
         <v>59.43</v>
       </c>
+      <c r="F24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -919,6 +993,9 @@
       <c r="E25" t="n">
         <v>36.73</v>
       </c>
+      <c r="F25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -938,6 +1015,9 @@
       <c r="E26" t="n">
         <v>45.78</v>
       </c>
+      <c r="F26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -957,6 +1037,9 @@
       <c r="E27" t="n">
         <v>52.06</v>
       </c>
+      <c r="F27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -976,6 +1059,9 @@
       <c r="E28" t="n">
         <v>46.01</v>
       </c>
+      <c r="F28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -995,6 +1081,9 @@
       <c r="E29" t="n">
         <v>34.12</v>
       </c>
+      <c r="F29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1014,6 +1103,9 @@
       <c r="E30" t="n">
         <v>62.59</v>
       </c>
+      <c r="F30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1033,6 +1125,9 @@
       <c r="E31" t="n">
         <v>31.42</v>
       </c>
+      <c r="F31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1052,6 +1147,9 @@
       <c r="E32" t="n">
         <v>46.53</v>
       </c>
+      <c r="F32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1071,6 +1169,9 @@
       <c r="E33" t="n">
         <v>42.41</v>
       </c>
+      <c r="F33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1088,6 +1189,9 @@
         <v>46.18</v>
       </c>
       <c r="E34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="F34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,11 @@
           <t>2025-07-28</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -490,6 +495,9 @@
       <c r="F2" t="n">
         <v>39.66</v>
       </c>
+      <c r="G2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,6 +520,9 @@
       <c r="F3" t="n">
         <v>63.46</v>
       </c>
+      <c r="G3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -534,6 +545,9 @@
       <c r="F4" t="n">
         <v>38.5</v>
       </c>
+      <c r="G4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -556,6 +570,9 @@
       <c r="F5" t="n">
         <v>53.66</v>
       </c>
+      <c r="G5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -578,6 +595,9 @@
       <c r="F6" t="n">
         <v>48.01</v>
       </c>
+      <c r="G6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -600,6 +620,9 @@
       <c r="F7" t="n">
         <v>55.04</v>
       </c>
+      <c r="G7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -622,6 +645,9 @@
       <c r="F8" t="n">
         <v>56.89</v>
       </c>
+      <c r="G8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -644,6 +670,9 @@
       <c r="F9" t="n">
         <v>65.3</v>
       </c>
+      <c r="G9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -666,6 +695,9 @@
       <c r="F10" t="n">
         <v>55.69</v>
       </c>
+      <c r="G10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -688,6 +720,9 @@
       <c r="F11" t="n">
         <v>61.86</v>
       </c>
+      <c r="G11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -710,6 +745,9 @@
       <c r="F12" t="n">
         <v>46.47</v>
       </c>
+      <c r="G12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -732,6 +770,9 @@
       <c r="F13" t="n">
         <v>62.83</v>
       </c>
+      <c r="G13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -754,6 +795,9 @@
       <c r="F14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="G14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -776,6 +820,9 @@
       <c r="F15" t="n">
         <v>52.95</v>
       </c>
+      <c r="G15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -798,6 +845,9 @@
       <c r="F16" t="n">
         <v>45.46</v>
       </c>
+      <c r="G16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -820,6 +870,9 @@
       <c r="F17" t="n">
         <v>37.94</v>
       </c>
+      <c r="G17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -842,6 +895,9 @@
       <c r="F18" t="n">
         <v>48.26</v>
       </c>
+      <c r="G18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -864,6 +920,9 @@
       <c r="F19" t="n">
         <v>33.06</v>
       </c>
+      <c r="G19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -886,6 +945,9 @@
       <c r="F20" t="n">
         <v>36.05</v>
       </c>
+      <c r="G20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -908,6 +970,9 @@
       <c r="F21" t="n">
         <v>54.84</v>
       </c>
+      <c r="G21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -930,6 +995,9 @@
       <c r="F22" t="n">
         <v>60.85</v>
       </c>
+      <c r="G22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -952,6 +1020,9 @@
       <c r="F23" t="n">
         <v>60.9</v>
       </c>
+      <c r="G23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -974,6 +1045,9 @@
       <c r="F24" t="n">
         <v>59.43</v>
       </c>
+      <c r="G24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -996,6 +1070,9 @@
       <c r="F25" t="n">
         <v>36.73</v>
       </c>
+      <c r="G25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1018,6 +1095,9 @@
       <c r="F26" t="n">
         <v>45.78</v>
       </c>
+      <c r="G26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1040,6 +1120,9 @@
       <c r="F27" t="n">
         <v>52.06</v>
       </c>
+      <c r="G27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1062,6 +1145,9 @@
       <c r="F28" t="n">
         <v>46.01</v>
       </c>
+      <c r="G28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1084,6 +1170,9 @@
       <c r="F29" t="n">
         <v>34.12</v>
       </c>
+      <c r="G29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1106,6 +1195,9 @@
       <c r="F30" t="n">
         <v>62.59</v>
       </c>
+      <c r="G30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1128,6 +1220,9 @@
       <c r="F31" t="n">
         <v>31.42</v>
       </c>
+      <c r="G31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1150,6 +1245,9 @@
       <c r="F32" t="n">
         <v>46.53</v>
       </c>
+      <c r="G32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1172,6 +1270,9 @@
       <c r="F33" t="n">
         <v>42.41</v>
       </c>
+      <c r="G33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1192,6 +1293,9 @@
         <v>45.98</v>
       </c>
       <c r="F34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="G34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,11 @@
           <t>2025-07-29</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -498,6 +503,9 @@
       <c r="G2" t="n">
         <v>39.66</v>
       </c>
+      <c r="H2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,6 +531,9 @@
       <c r="G3" t="n">
         <v>63.46</v>
       </c>
+      <c r="H3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -548,6 +559,9 @@
       <c r="G4" t="n">
         <v>38.5</v>
       </c>
+      <c r="H4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -573,6 +587,9 @@
       <c r="G5" t="n">
         <v>53.66</v>
       </c>
+      <c r="H5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -598,6 +615,9 @@
       <c r="G6" t="n">
         <v>48.01</v>
       </c>
+      <c r="H6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -623,6 +643,9 @@
       <c r="G7" t="n">
         <v>55.04</v>
       </c>
+      <c r="H7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -648,6 +671,9 @@
       <c r="G8" t="n">
         <v>56.89</v>
       </c>
+      <c r="H8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -673,6 +699,9 @@
       <c r="G9" t="n">
         <v>65.3</v>
       </c>
+      <c r="H9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -698,6 +727,9 @@
       <c r="G10" t="n">
         <v>55.69</v>
       </c>
+      <c r="H10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -723,6 +755,9 @@
       <c r="G11" t="n">
         <v>61.86</v>
       </c>
+      <c r="H11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -748,6 +783,9 @@
       <c r="G12" t="n">
         <v>46.47</v>
       </c>
+      <c r="H12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -773,6 +811,9 @@
       <c r="G13" t="n">
         <v>62.83</v>
       </c>
+      <c r="H13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -798,6 +839,9 @@
       <c r="G14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="H14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -823,6 +867,9 @@
       <c r="G15" t="n">
         <v>52.95</v>
       </c>
+      <c r="H15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -848,6 +895,9 @@
       <c r="G16" t="n">
         <v>45.46</v>
       </c>
+      <c r="H16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -873,6 +923,9 @@
       <c r="G17" t="n">
         <v>37.94</v>
       </c>
+      <c r="H17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -898,6 +951,9 @@
       <c r="G18" t="n">
         <v>48.26</v>
       </c>
+      <c r="H18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -923,6 +979,9 @@
       <c r="G19" t="n">
         <v>33.06</v>
       </c>
+      <c r="H19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -948,6 +1007,9 @@
       <c r="G20" t="n">
         <v>36.05</v>
       </c>
+      <c r="H20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -973,6 +1035,9 @@
       <c r="G21" t="n">
         <v>54.84</v>
       </c>
+      <c r="H21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -998,6 +1063,9 @@
       <c r="G22" t="n">
         <v>60.85</v>
       </c>
+      <c r="H22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1023,6 +1091,9 @@
       <c r="G23" t="n">
         <v>60.9</v>
       </c>
+      <c r="H23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1048,6 +1119,9 @@
       <c r="G24" t="n">
         <v>59.43</v>
       </c>
+      <c r="H24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1073,6 +1147,9 @@
       <c r="G25" t="n">
         <v>36.73</v>
       </c>
+      <c r="H25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1098,6 +1175,9 @@
       <c r="G26" t="n">
         <v>45.78</v>
       </c>
+      <c r="H26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1123,6 +1203,9 @@
       <c r="G27" t="n">
         <v>52.06</v>
       </c>
+      <c r="H27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1148,6 +1231,9 @@
       <c r="G28" t="n">
         <v>46.01</v>
       </c>
+      <c r="H28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1173,6 +1259,9 @@
       <c r="G29" t="n">
         <v>34.12</v>
       </c>
+      <c r="H29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1198,6 +1287,9 @@
       <c r="G30" t="n">
         <v>62.59</v>
       </c>
+      <c r="H30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1223,6 +1315,9 @@
       <c r="G31" t="n">
         <v>31.42</v>
       </c>
+      <c r="H31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1248,6 +1343,9 @@
       <c r="G32" t="n">
         <v>46.53</v>
       </c>
+      <c r="H32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1273,6 +1371,9 @@
       <c r="G33" t="n">
         <v>42.41</v>
       </c>
+      <c r="H33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1296,6 +1397,9 @@
         <v>45.98</v>
       </c>
       <c r="G34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="H34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,11 @@
           <t>2025-08-05</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,6 +511,9 @@
       <c r="H2" t="n">
         <v>39.66</v>
       </c>
+      <c r="I2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,6 +542,9 @@
       <c r="H3" t="n">
         <v>63.46</v>
       </c>
+      <c r="I3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -562,6 +573,9 @@
       <c r="H4" t="n">
         <v>38.5</v>
       </c>
+      <c r="I4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -590,6 +604,9 @@
       <c r="H5" t="n">
         <v>53.66</v>
       </c>
+      <c r="I5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -618,6 +635,9 @@
       <c r="H6" t="n">
         <v>48.01</v>
       </c>
+      <c r="I6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -646,6 +666,9 @@
       <c r="H7" t="n">
         <v>55.04</v>
       </c>
+      <c r="I7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -674,6 +697,9 @@
       <c r="H8" t="n">
         <v>56.89</v>
       </c>
+      <c r="I8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -702,6 +728,9 @@
       <c r="H9" t="n">
         <v>65.3</v>
       </c>
+      <c r="I9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -730,6 +759,9 @@
       <c r="H10" t="n">
         <v>55.69</v>
       </c>
+      <c r="I10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -758,6 +790,9 @@
       <c r="H11" t="n">
         <v>61.86</v>
       </c>
+      <c r="I11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -786,6 +821,9 @@
       <c r="H12" t="n">
         <v>46.47</v>
       </c>
+      <c r="I12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -814,6 +852,9 @@
       <c r="H13" t="n">
         <v>62.83</v>
       </c>
+      <c r="I13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -842,6 +883,9 @@
       <c r="H14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="I14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -870,6 +914,9 @@
       <c r="H15" t="n">
         <v>52.95</v>
       </c>
+      <c r="I15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -898,6 +945,9 @@
       <c r="H16" t="n">
         <v>45.46</v>
       </c>
+      <c r="I16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -926,6 +976,9 @@
       <c r="H17" t="n">
         <v>37.94</v>
       </c>
+      <c r="I17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -954,6 +1007,9 @@
       <c r="H18" t="n">
         <v>48.26</v>
       </c>
+      <c r="I18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -982,6 +1038,9 @@
       <c r="H19" t="n">
         <v>33.06</v>
       </c>
+      <c r="I19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1010,6 +1069,9 @@
       <c r="H20" t="n">
         <v>36.05</v>
       </c>
+      <c r="I20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1038,6 +1100,9 @@
       <c r="H21" t="n">
         <v>54.84</v>
       </c>
+      <c r="I21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1066,6 +1131,9 @@
       <c r="H22" t="n">
         <v>60.85</v>
       </c>
+      <c r="I22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1094,6 +1162,9 @@
       <c r="H23" t="n">
         <v>60.9</v>
       </c>
+      <c r="I23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1122,6 +1193,9 @@
       <c r="H24" t="n">
         <v>59.43</v>
       </c>
+      <c r="I24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1150,6 +1224,9 @@
       <c r="H25" t="n">
         <v>36.73</v>
       </c>
+      <c r="I25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1178,6 +1255,9 @@
       <c r="H26" t="n">
         <v>45.78</v>
       </c>
+      <c r="I26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1206,6 +1286,9 @@
       <c r="H27" t="n">
         <v>52.06</v>
       </c>
+      <c r="I27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1234,6 +1317,9 @@
       <c r="H28" t="n">
         <v>46.01</v>
       </c>
+      <c r="I28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1262,6 +1348,9 @@
       <c r="H29" t="n">
         <v>34.12</v>
       </c>
+      <c r="I29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1290,6 +1379,9 @@
       <c r="H30" t="n">
         <v>62.59</v>
       </c>
+      <c r="I30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1318,6 +1410,9 @@
       <c r="H31" t="n">
         <v>31.42</v>
       </c>
+      <c r="I31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1346,6 +1441,9 @@
       <c r="H32" t="n">
         <v>46.53</v>
       </c>
+      <c r="I32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1374,6 +1472,9 @@
       <c r="H33" t="n">
         <v>42.41</v>
       </c>
+      <c r="I33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1400,6 +1501,9 @@
         <v>45.98</v>
       </c>
       <c r="H34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="I34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,11 @@
           <t>2025-08-12</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -514,6 +519,9 @@
       <c r="I2" t="n">
         <v>39.66</v>
       </c>
+      <c r="J2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -545,6 +553,9 @@
       <c r="I3" t="n">
         <v>63.46</v>
       </c>
+      <c r="J3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -576,6 +587,9 @@
       <c r="I4" t="n">
         <v>38.5</v>
       </c>
+      <c r="J4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -607,6 +621,9 @@
       <c r="I5" t="n">
         <v>53.66</v>
       </c>
+      <c r="J5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -638,6 +655,9 @@
       <c r="I6" t="n">
         <v>48.01</v>
       </c>
+      <c r="J6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -669,6 +689,9 @@
       <c r="I7" t="n">
         <v>55.04</v>
       </c>
+      <c r="J7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -700,6 +723,9 @@
       <c r="I8" t="n">
         <v>56.89</v>
       </c>
+      <c r="J8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -731,6 +757,9 @@
       <c r="I9" t="n">
         <v>65.3</v>
       </c>
+      <c r="J9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -762,6 +791,9 @@
       <c r="I10" t="n">
         <v>55.69</v>
       </c>
+      <c r="J10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -793,6 +825,9 @@
       <c r="I11" t="n">
         <v>61.86</v>
       </c>
+      <c r="J11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -824,6 +859,9 @@
       <c r="I12" t="n">
         <v>46.47</v>
       </c>
+      <c r="J12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -855,6 +893,9 @@
       <c r="I13" t="n">
         <v>62.83</v>
       </c>
+      <c r="J13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -886,6 +927,9 @@
       <c r="I14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="J14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -917,6 +961,9 @@
       <c r="I15" t="n">
         <v>52.95</v>
       </c>
+      <c r="J15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -948,6 +995,9 @@
       <c r="I16" t="n">
         <v>45.46</v>
       </c>
+      <c r="J16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -979,6 +1029,9 @@
       <c r="I17" t="n">
         <v>37.94</v>
       </c>
+      <c r="J17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1010,6 +1063,9 @@
       <c r="I18" t="n">
         <v>48.26</v>
       </c>
+      <c r="J18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1041,6 +1097,9 @@
       <c r="I19" t="n">
         <v>33.06</v>
       </c>
+      <c r="J19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1072,6 +1131,9 @@
       <c r="I20" t="n">
         <v>36.05</v>
       </c>
+      <c r="J20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1103,6 +1165,9 @@
       <c r="I21" t="n">
         <v>54.84</v>
       </c>
+      <c r="J21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1134,6 +1199,9 @@
       <c r="I22" t="n">
         <v>60.85</v>
       </c>
+      <c r="J22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1165,6 +1233,9 @@
       <c r="I23" t="n">
         <v>60.9</v>
       </c>
+      <c r="J23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1196,6 +1267,9 @@
       <c r="I24" t="n">
         <v>59.43</v>
       </c>
+      <c r="J24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1227,6 +1301,9 @@
       <c r="I25" t="n">
         <v>36.73</v>
       </c>
+      <c r="J25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1258,6 +1335,9 @@
       <c r="I26" t="n">
         <v>45.78</v>
       </c>
+      <c r="J26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1289,6 +1369,9 @@
       <c r="I27" t="n">
         <v>52.06</v>
       </c>
+      <c r="J27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1320,6 +1403,9 @@
       <c r="I28" t="n">
         <v>46.01</v>
       </c>
+      <c r="J28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1351,6 +1437,9 @@
       <c r="I29" t="n">
         <v>34.12</v>
       </c>
+      <c r="J29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1382,6 +1471,9 @@
       <c r="I30" t="n">
         <v>62.59</v>
       </c>
+      <c r="J30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1413,6 +1505,9 @@
       <c r="I31" t="n">
         <v>31.42</v>
       </c>
+      <c r="J31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1444,6 +1539,9 @@
       <c r="I32" t="n">
         <v>46.53</v>
       </c>
+      <c r="J32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1475,6 +1573,9 @@
       <c r="I33" t="n">
         <v>42.41</v>
       </c>
+      <c r="J33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1504,6 +1605,9 @@
         <v>45.98</v>
       </c>
       <c r="I34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="J34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,11 @@
           <t>2025-08-19</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,9 @@
       <c r="J2" t="n">
         <v>39.66</v>
       </c>
+      <c r="K2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -556,6 +564,9 @@
       <c r="J3" t="n">
         <v>63.46</v>
       </c>
+      <c r="K3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -590,6 +601,9 @@
       <c r="J4" t="n">
         <v>38.5</v>
       </c>
+      <c r="K4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -624,6 +638,9 @@
       <c r="J5" t="n">
         <v>53.66</v>
       </c>
+      <c r="K5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -658,6 +675,9 @@
       <c r="J6" t="n">
         <v>48.01</v>
       </c>
+      <c r="K6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -692,6 +712,9 @@
       <c r="J7" t="n">
         <v>55.04</v>
       </c>
+      <c r="K7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -726,6 +749,9 @@
       <c r="J8" t="n">
         <v>56.89</v>
       </c>
+      <c r="K8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -760,6 +786,9 @@
       <c r="J9" t="n">
         <v>65.3</v>
       </c>
+      <c r="K9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -794,6 +823,9 @@
       <c r="J10" t="n">
         <v>55.69</v>
       </c>
+      <c r="K10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -828,6 +860,9 @@
       <c r="J11" t="n">
         <v>61.86</v>
       </c>
+      <c r="K11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -862,6 +897,9 @@
       <c r="J12" t="n">
         <v>46.47</v>
       </c>
+      <c r="K12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -896,6 +934,9 @@
       <c r="J13" t="n">
         <v>62.83</v>
       </c>
+      <c r="K13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -930,6 +971,9 @@
       <c r="J14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="K14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -964,6 +1008,9 @@
       <c r="J15" t="n">
         <v>52.95</v>
       </c>
+      <c r="K15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -998,6 +1045,9 @@
       <c r="J16" t="n">
         <v>45.46</v>
       </c>
+      <c r="K16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1032,6 +1082,9 @@
       <c r="J17" t="n">
         <v>37.94</v>
       </c>
+      <c r="K17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1066,6 +1119,9 @@
       <c r="J18" t="n">
         <v>48.26</v>
       </c>
+      <c r="K18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1100,6 +1156,9 @@
       <c r="J19" t="n">
         <v>33.06</v>
       </c>
+      <c r="K19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1134,6 +1193,9 @@
       <c r="J20" t="n">
         <v>36.05</v>
       </c>
+      <c r="K20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1168,6 +1230,9 @@
       <c r="J21" t="n">
         <v>54.84</v>
       </c>
+      <c r="K21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1202,6 +1267,9 @@
       <c r="J22" t="n">
         <v>60.85</v>
       </c>
+      <c r="K22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1236,6 +1304,9 @@
       <c r="J23" t="n">
         <v>60.9</v>
       </c>
+      <c r="K23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1270,6 +1341,9 @@
       <c r="J24" t="n">
         <v>59.43</v>
       </c>
+      <c r="K24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1304,6 +1378,9 @@
       <c r="J25" t="n">
         <v>36.73</v>
       </c>
+      <c r="K25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1338,6 +1415,9 @@
       <c r="J26" t="n">
         <v>45.78</v>
       </c>
+      <c r="K26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1372,6 +1452,9 @@
       <c r="J27" t="n">
         <v>52.06</v>
       </c>
+      <c r="K27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1406,6 +1489,9 @@
       <c r="J28" t="n">
         <v>46.01</v>
       </c>
+      <c r="K28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1440,6 +1526,9 @@
       <c r="J29" t="n">
         <v>34.12</v>
       </c>
+      <c r="K29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1474,6 +1563,9 @@
       <c r="J30" t="n">
         <v>62.59</v>
       </c>
+      <c r="K30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1508,6 +1600,9 @@
       <c r="J31" t="n">
         <v>31.42</v>
       </c>
+      <c r="K31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1542,6 +1637,9 @@
       <c r="J32" t="n">
         <v>46.53</v>
       </c>
+      <c r="K32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1576,6 +1674,9 @@
       <c r="J33" t="n">
         <v>42.41</v>
       </c>
+      <c r="K33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1608,6 +1709,9 @@
         <v>45.98</v>
       </c>
       <c r="J34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="K34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,11 @@
           <t>2025-08-26</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -530,6 +535,9 @@
       <c r="K2" t="n">
         <v>39.66</v>
       </c>
+      <c r="L2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -567,6 +575,9 @@
       <c r="K3" t="n">
         <v>63.46</v>
       </c>
+      <c r="L3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -604,6 +615,9 @@
       <c r="K4" t="n">
         <v>38.5</v>
       </c>
+      <c r="L4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -641,6 +655,9 @@
       <c r="K5" t="n">
         <v>53.66</v>
       </c>
+      <c r="L5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +695,9 @@
       <c r="K6" t="n">
         <v>48.01</v>
       </c>
+      <c r="L6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -715,6 +735,9 @@
       <c r="K7" t="n">
         <v>55.04</v>
       </c>
+      <c r="L7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -752,6 +775,9 @@
       <c r="K8" t="n">
         <v>56.89</v>
       </c>
+      <c r="L8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -789,6 +815,9 @@
       <c r="K9" t="n">
         <v>65.3</v>
       </c>
+      <c r="L9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -826,6 +855,9 @@
       <c r="K10" t="n">
         <v>55.69</v>
       </c>
+      <c r="L10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -863,6 +895,9 @@
       <c r="K11" t="n">
         <v>61.86</v>
       </c>
+      <c r="L11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -900,6 +935,9 @@
       <c r="K12" t="n">
         <v>46.47</v>
       </c>
+      <c r="L12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -937,6 +975,9 @@
       <c r="K13" t="n">
         <v>62.83</v>
       </c>
+      <c r="L13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -974,6 +1015,9 @@
       <c r="K14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="L14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1011,6 +1055,9 @@
       <c r="K15" t="n">
         <v>52.95</v>
       </c>
+      <c r="L15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1048,6 +1095,9 @@
       <c r="K16" t="n">
         <v>45.46</v>
       </c>
+      <c r="L16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1085,6 +1135,9 @@
       <c r="K17" t="n">
         <v>37.94</v>
       </c>
+      <c r="L17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1122,6 +1175,9 @@
       <c r="K18" t="n">
         <v>48.26</v>
       </c>
+      <c r="L18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1159,6 +1215,9 @@
       <c r="K19" t="n">
         <v>33.06</v>
       </c>
+      <c r="L19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1196,6 +1255,9 @@
       <c r="K20" t="n">
         <v>36.05</v>
       </c>
+      <c r="L20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1233,6 +1295,9 @@
       <c r="K21" t="n">
         <v>54.84</v>
       </c>
+      <c r="L21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1270,6 +1335,9 @@
       <c r="K22" t="n">
         <v>60.85</v>
       </c>
+      <c r="L22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1307,6 +1375,9 @@
       <c r="K23" t="n">
         <v>60.9</v>
       </c>
+      <c r="L23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1344,6 +1415,9 @@
       <c r="K24" t="n">
         <v>59.43</v>
       </c>
+      <c r="L24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1381,6 +1455,9 @@
       <c r="K25" t="n">
         <v>36.73</v>
       </c>
+      <c r="L25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1418,6 +1495,9 @@
       <c r="K26" t="n">
         <v>45.78</v>
       </c>
+      <c r="L26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1455,6 +1535,9 @@
       <c r="K27" t="n">
         <v>52.06</v>
       </c>
+      <c r="L27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1492,6 +1575,9 @@
       <c r="K28" t="n">
         <v>46.01</v>
       </c>
+      <c r="L28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1529,6 +1615,9 @@
       <c r="K29" t="n">
         <v>34.12</v>
       </c>
+      <c r="L29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1566,6 +1655,9 @@
       <c r="K30" t="n">
         <v>62.59</v>
       </c>
+      <c r="L30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1603,6 +1695,9 @@
       <c r="K31" t="n">
         <v>31.42</v>
       </c>
+      <c r="L31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1640,6 +1735,9 @@
       <c r="K32" t="n">
         <v>46.53</v>
       </c>
+      <c r="L32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1677,6 +1775,9 @@
       <c r="K33" t="n">
         <v>42.41</v>
       </c>
+      <c r="L33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1712,6 +1813,9 @@
         <v>45.98</v>
       </c>
       <c r="K34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="L34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,11 @@
           <t>2025-09-02</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -538,6 +543,9 @@
       <c r="L2" t="n">
         <v>39.66</v>
       </c>
+      <c r="M2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -578,6 +586,9 @@
       <c r="L3" t="n">
         <v>63.46</v>
       </c>
+      <c r="M3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -618,6 +629,9 @@
       <c r="L4" t="n">
         <v>38.5</v>
       </c>
+      <c r="M4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -658,6 +672,9 @@
       <c r="L5" t="n">
         <v>53.66</v>
       </c>
+      <c r="M5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -698,6 +715,9 @@
       <c r="L6" t="n">
         <v>48.01</v>
       </c>
+      <c r="M6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -738,6 +758,9 @@
       <c r="L7" t="n">
         <v>55.04</v>
       </c>
+      <c r="M7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +801,9 @@
       <c r="L8" t="n">
         <v>56.89</v>
       </c>
+      <c r="M8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -818,6 +844,9 @@
       <c r="L9" t="n">
         <v>65.3</v>
       </c>
+      <c r="M9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -858,6 +887,9 @@
       <c r="L10" t="n">
         <v>55.69</v>
       </c>
+      <c r="M10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -898,6 +930,9 @@
       <c r="L11" t="n">
         <v>61.86</v>
       </c>
+      <c r="M11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -938,6 +973,9 @@
       <c r="L12" t="n">
         <v>46.47</v>
       </c>
+      <c r="M12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -978,6 +1016,9 @@
       <c r="L13" t="n">
         <v>62.83</v>
       </c>
+      <c r="M13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1018,6 +1059,9 @@
       <c r="L14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="M14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1058,6 +1102,9 @@
       <c r="L15" t="n">
         <v>52.95</v>
       </c>
+      <c r="M15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1098,6 +1145,9 @@
       <c r="L16" t="n">
         <v>45.46</v>
       </c>
+      <c r="M16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1138,6 +1188,9 @@
       <c r="L17" t="n">
         <v>37.94</v>
       </c>
+      <c r="M17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1178,6 +1231,9 @@
       <c r="L18" t="n">
         <v>48.26</v>
       </c>
+      <c r="M18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1218,6 +1274,9 @@
       <c r="L19" t="n">
         <v>33.06</v>
       </c>
+      <c r="M19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1258,6 +1317,9 @@
       <c r="L20" t="n">
         <v>36.05</v>
       </c>
+      <c r="M20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1298,6 +1360,9 @@
       <c r="L21" t="n">
         <v>54.84</v>
       </c>
+      <c r="M21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1338,6 +1403,9 @@
       <c r="L22" t="n">
         <v>60.85</v>
       </c>
+      <c r="M22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1378,6 +1446,9 @@
       <c r="L23" t="n">
         <v>60.9</v>
       </c>
+      <c r="M23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1418,6 +1489,9 @@
       <c r="L24" t="n">
         <v>59.43</v>
       </c>
+      <c r="M24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1458,6 +1532,9 @@
       <c r="L25" t="n">
         <v>36.73</v>
       </c>
+      <c r="M25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1498,6 +1575,9 @@
       <c r="L26" t="n">
         <v>45.78</v>
       </c>
+      <c r="M26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1538,6 +1618,9 @@
       <c r="L27" t="n">
         <v>52.06</v>
       </c>
+      <c r="M27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1578,6 +1661,9 @@
       <c r="L28" t="n">
         <v>46.01</v>
       </c>
+      <c r="M28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1618,6 +1704,9 @@
       <c r="L29" t="n">
         <v>34.12</v>
       </c>
+      <c r="M29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1658,6 +1747,9 @@
       <c r="L30" t="n">
         <v>62.59</v>
       </c>
+      <c r="M30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1698,6 +1790,9 @@
       <c r="L31" t="n">
         <v>31.42</v>
       </c>
+      <c r="M31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1738,6 +1833,9 @@
       <c r="L32" t="n">
         <v>46.53</v>
       </c>
+      <c r="M32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1778,6 +1876,9 @@
       <c r="L33" t="n">
         <v>42.41</v>
       </c>
+      <c r="M33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1816,6 +1917,9 @@
         <v>45.98</v>
       </c>
       <c r="L34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="M34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,11 @@
           <t>2025-09-09</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -546,6 +551,9 @@
       <c r="M2" t="n">
         <v>39.66</v>
       </c>
+      <c r="N2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -589,6 +597,9 @@
       <c r="M3" t="n">
         <v>63.46</v>
       </c>
+      <c r="N3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -632,6 +643,9 @@
       <c r="M4" t="n">
         <v>38.5</v>
       </c>
+      <c r="N4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -675,6 +689,9 @@
       <c r="M5" t="n">
         <v>53.66</v>
       </c>
+      <c r="N5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -718,6 +735,9 @@
       <c r="M6" t="n">
         <v>48.01</v>
       </c>
+      <c r="N6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -761,6 +781,9 @@
       <c r="M7" t="n">
         <v>55.04</v>
       </c>
+      <c r="N7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -804,6 +827,9 @@
       <c r="M8" t="n">
         <v>56.89</v>
       </c>
+      <c r="N8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -847,6 +873,9 @@
       <c r="M9" t="n">
         <v>65.3</v>
       </c>
+      <c r="N9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -890,6 +919,9 @@
       <c r="M10" t="n">
         <v>55.69</v>
       </c>
+      <c r="N10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -933,6 +965,9 @@
       <c r="M11" t="n">
         <v>61.86</v>
       </c>
+      <c r="N11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -976,6 +1011,9 @@
       <c r="M12" t="n">
         <v>46.47</v>
       </c>
+      <c r="N12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1019,6 +1057,9 @@
       <c r="M13" t="n">
         <v>62.83</v>
       </c>
+      <c r="N13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1062,6 +1103,9 @@
       <c r="M14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="N14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1105,6 +1149,9 @@
       <c r="M15" t="n">
         <v>52.95</v>
       </c>
+      <c r="N15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1148,6 +1195,9 @@
       <c r="M16" t="n">
         <v>45.46</v>
       </c>
+      <c r="N16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1191,6 +1241,9 @@
       <c r="M17" t="n">
         <v>37.94</v>
       </c>
+      <c r="N17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1234,6 +1287,9 @@
       <c r="M18" t="n">
         <v>48.26</v>
       </c>
+      <c r="N18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1277,6 +1333,9 @@
       <c r="M19" t="n">
         <v>33.06</v>
       </c>
+      <c r="N19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1320,6 +1379,9 @@
       <c r="M20" t="n">
         <v>36.05</v>
       </c>
+      <c r="N20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1363,6 +1425,9 @@
       <c r="M21" t="n">
         <v>54.84</v>
       </c>
+      <c r="N21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1406,6 +1471,9 @@
       <c r="M22" t="n">
         <v>60.85</v>
       </c>
+      <c r="N22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1449,6 +1517,9 @@
       <c r="M23" t="n">
         <v>60.9</v>
       </c>
+      <c r="N23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1492,6 +1563,9 @@
       <c r="M24" t="n">
         <v>59.43</v>
       </c>
+      <c r="N24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1535,6 +1609,9 @@
       <c r="M25" t="n">
         <v>36.73</v>
       </c>
+      <c r="N25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1578,6 +1655,9 @@
       <c r="M26" t="n">
         <v>45.78</v>
       </c>
+      <c r="N26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1621,6 +1701,9 @@
       <c r="M27" t="n">
         <v>52.06</v>
       </c>
+      <c r="N27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1664,6 +1747,9 @@
       <c r="M28" t="n">
         <v>46.01</v>
       </c>
+      <c r="N28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1707,6 +1793,9 @@
       <c r="M29" t="n">
         <v>34.12</v>
       </c>
+      <c r="N29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1750,6 +1839,9 @@
       <c r="M30" t="n">
         <v>62.59</v>
       </c>
+      <c r="N30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1793,6 +1885,9 @@
       <c r="M31" t="n">
         <v>31.42</v>
       </c>
+      <c r="N31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1836,6 +1931,9 @@
       <c r="M32" t="n">
         <v>46.53</v>
       </c>
+      <c r="N32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1879,6 +1977,9 @@
       <c r="M33" t="n">
         <v>42.41</v>
       </c>
+      <c r="N33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1920,6 +2021,9 @@
         <v>45.98</v>
       </c>
       <c r="M34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="N34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +508,11 @@
           <t>2025-09-16</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -554,6 +559,9 @@
       <c r="N2" t="n">
         <v>39.66</v>
       </c>
+      <c r="O2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -600,6 +608,9 @@
       <c r="N3" t="n">
         <v>63.46</v>
       </c>
+      <c r="O3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -646,6 +657,9 @@
       <c r="N4" t="n">
         <v>38.5</v>
       </c>
+      <c r="O4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -692,6 +706,9 @@
       <c r="N5" t="n">
         <v>53.66</v>
       </c>
+      <c r="O5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -738,6 +755,9 @@
       <c r="N6" t="n">
         <v>48.01</v>
       </c>
+      <c r="O6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -784,6 +804,9 @@
       <c r="N7" t="n">
         <v>55.04</v>
       </c>
+      <c r="O7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -830,6 +853,9 @@
       <c r="N8" t="n">
         <v>56.89</v>
       </c>
+      <c r="O8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -876,6 +902,9 @@
       <c r="N9" t="n">
         <v>65.3</v>
       </c>
+      <c r="O9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -922,6 +951,9 @@
       <c r="N10" t="n">
         <v>55.69</v>
       </c>
+      <c r="O10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -968,6 +1000,9 @@
       <c r="N11" t="n">
         <v>61.86</v>
       </c>
+      <c r="O11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1014,6 +1049,9 @@
       <c r="N12" t="n">
         <v>46.47</v>
       </c>
+      <c r="O12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1060,6 +1098,9 @@
       <c r="N13" t="n">
         <v>62.83</v>
       </c>
+      <c r="O13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1106,6 +1147,9 @@
       <c r="N14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="O14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1152,6 +1196,9 @@
       <c r="N15" t="n">
         <v>52.95</v>
       </c>
+      <c r="O15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1198,6 +1245,9 @@
       <c r="N16" t="n">
         <v>45.46</v>
       </c>
+      <c r="O16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1244,6 +1294,9 @@
       <c r="N17" t="n">
         <v>37.94</v>
       </c>
+      <c r="O17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1290,6 +1343,9 @@
       <c r="N18" t="n">
         <v>48.26</v>
       </c>
+      <c r="O18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1336,6 +1392,9 @@
       <c r="N19" t="n">
         <v>33.06</v>
       </c>
+      <c r="O19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1382,6 +1441,9 @@
       <c r="N20" t="n">
         <v>36.05</v>
       </c>
+      <c r="O20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1428,6 +1490,9 @@
       <c r="N21" t="n">
         <v>54.84</v>
       </c>
+      <c r="O21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1474,6 +1539,9 @@
       <c r="N22" t="n">
         <v>60.85</v>
       </c>
+      <c r="O22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1520,6 +1588,9 @@
       <c r="N23" t="n">
         <v>60.9</v>
       </c>
+      <c r="O23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1566,6 +1637,9 @@
       <c r="N24" t="n">
         <v>59.43</v>
       </c>
+      <c r="O24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1612,6 +1686,9 @@
       <c r="N25" t="n">
         <v>36.73</v>
       </c>
+      <c r="O25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1658,6 +1735,9 @@
       <c r="N26" t="n">
         <v>45.78</v>
       </c>
+      <c r="O26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1704,6 +1784,9 @@
       <c r="N27" t="n">
         <v>52.06</v>
       </c>
+      <c r="O27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1750,6 +1833,9 @@
       <c r="N28" t="n">
         <v>46.01</v>
       </c>
+      <c r="O28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1796,6 +1882,9 @@
       <c r="N29" t="n">
         <v>34.12</v>
       </c>
+      <c r="O29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1842,6 +1931,9 @@
       <c r="N30" t="n">
         <v>62.59</v>
       </c>
+      <c r="O30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1888,6 +1980,9 @@
       <c r="N31" t="n">
         <v>31.42</v>
       </c>
+      <c r="O31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1934,6 +2029,9 @@
       <c r="N32" t="n">
         <v>46.53</v>
       </c>
+      <c r="O32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1980,6 +2078,9 @@
       <c r="N33" t="n">
         <v>42.41</v>
       </c>
+      <c r="O33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2024,6 +2125,9 @@
         <v>45.98</v>
       </c>
       <c r="N34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="O34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,11 @@
           <t>2025-09-23</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -562,6 +567,9 @@
       <c r="O2" t="n">
         <v>39.66</v>
       </c>
+      <c r="P2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -611,6 +619,9 @@
       <c r="O3" t="n">
         <v>63.46</v>
       </c>
+      <c r="P3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -660,6 +671,9 @@
       <c r="O4" t="n">
         <v>38.5</v>
       </c>
+      <c r="P4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -709,6 +723,9 @@
       <c r="O5" t="n">
         <v>53.66</v>
       </c>
+      <c r="P5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -758,6 +775,9 @@
       <c r="O6" t="n">
         <v>48.01</v>
       </c>
+      <c r="P6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -807,6 +827,9 @@
       <c r="O7" t="n">
         <v>55.04</v>
       </c>
+      <c r="P7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -856,6 +879,9 @@
       <c r="O8" t="n">
         <v>56.89</v>
       </c>
+      <c r="P8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -905,6 +931,9 @@
       <c r="O9" t="n">
         <v>65.3</v>
       </c>
+      <c r="P9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -954,6 +983,9 @@
       <c r="O10" t="n">
         <v>55.69</v>
       </c>
+      <c r="P10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1003,6 +1035,9 @@
       <c r="O11" t="n">
         <v>61.86</v>
       </c>
+      <c r="P11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1052,6 +1087,9 @@
       <c r="O12" t="n">
         <v>46.47</v>
       </c>
+      <c r="P12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1101,6 +1139,9 @@
       <c r="O13" t="n">
         <v>62.83</v>
       </c>
+      <c r="P13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1150,6 +1191,9 @@
       <c r="O14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="P14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1199,6 +1243,9 @@
       <c r="O15" t="n">
         <v>52.95</v>
       </c>
+      <c r="P15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1248,6 +1295,9 @@
       <c r="O16" t="n">
         <v>45.46</v>
       </c>
+      <c r="P16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1297,6 +1347,9 @@
       <c r="O17" t="n">
         <v>37.94</v>
       </c>
+      <c r="P17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1346,6 +1399,9 @@
       <c r="O18" t="n">
         <v>48.26</v>
       </c>
+      <c r="P18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1395,6 +1451,9 @@
       <c r="O19" t="n">
         <v>33.06</v>
       </c>
+      <c r="P19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1444,6 +1503,9 @@
       <c r="O20" t="n">
         <v>36.05</v>
       </c>
+      <c r="P20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1493,6 +1555,9 @@
       <c r="O21" t="n">
         <v>54.84</v>
       </c>
+      <c r="P21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1542,6 +1607,9 @@
       <c r="O22" t="n">
         <v>60.85</v>
       </c>
+      <c r="P22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1591,6 +1659,9 @@
       <c r="O23" t="n">
         <v>60.9</v>
       </c>
+      <c r="P23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1640,6 +1711,9 @@
       <c r="O24" t="n">
         <v>59.43</v>
       </c>
+      <c r="P24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1689,6 +1763,9 @@
       <c r="O25" t="n">
         <v>36.73</v>
       </c>
+      <c r="P25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1738,6 +1815,9 @@
       <c r="O26" t="n">
         <v>45.78</v>
       </c>
+      <c r="P26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1787,6 +1867,9 @@
       <c r="O27" t="n">
         <v>52.06</v>
       </c>
+      <c r="P27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1836,6 +1919,9 @@
       <c r="O28" t="n">
         <v>46.01</v>
       </c>
+      <c r="P28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1885,6 +1971,9 @@
       <c r="O29" t="n">
         <v>34.12</v>
       </c>
+      <c r="P29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1934,6 +2023,9 @@
       <c r="O30" t="n">
         <v>62.59</v>
       </c>
+      <c r="P30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1983,6 +2075,9 @@
       <c r="O31" t="n">
         <v>31.42</v>
       </c>
+      <c r="P31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2032,6 +2127,9 @@
       <c r="O32" t="n">
         <v>46.53</v>
       </c>
+      <c r="P32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2081,6 +2179,9 @@
       <c r="O33" t="n">
         <v>42.41</v>
       </c>
+      <c r="P33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2128,6 +2229,9 @@
         <v>45.98</v>
       </c>
       <c r="O34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="P34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>2025-09-30</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -570,6 +575,9 @@
       <c r="P2" t="n">
         <v>39.66</v>
       </c>
+      <c r="Q2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -622,6 +630,9 @@
       <c r="P3" t="n">
         <v>63.46</v>
       </c>
+      <c r="Q3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -674,6 +685,9 @@
       <c r="P4" t="n">
         <v>38.5</v>
       </c>
+      <c r="Q4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -726,6 +740,9 @@
       <c r="P5" t="n">
         <v>53.66</v>
       </c>
+      <c r="Q5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -778,6 +795,9 @@
       <c r="P6" t="n">
         <v>48.01</v>
       </c>
+      <c r="Q6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -830,6 +850,9 @@
       <c r="P7" t="n">
         <v>55.04</v>
       </c>
+      <c r="Q7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -882,6 +905,9 @@
       <c r="P8" t="n">
         <v>56.89</v>
       </c>
+      <c r="Q8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -934,6 +960,9 @@
       <c r="P9" t="n">
         <v>65.3</v>
       </c>
+      <c r="Q9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -986,6 +1015,9 @@
       <c r="P10" t="n">
         <v>55.69</v>
       </c>
+      <c r="Q10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1038,6 +1070,9 @@
       <c r="P11" t="n">
         <v>61.86</v>
       </c>
+      <c r="Q11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1090,6 +1125,9 @@
       <c r="P12" t="n">
         <v>46.47</v>
       </c>
+      <c r="Q12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1142,6 +1180,9 @@
       <c r="P13" t="n">
         <v>62.83</v>
       </c>
+      <c r="Q13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1194,6 +1235,9 @@
       <c r="P14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="Q14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1246,6 +1290,9 @@
       <c r="P15" t="n">
         <v>52.95</v>
       </c>
+      <c r="Q15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1298,6 +1345,9 @@
       <c r="P16" t="n">
         <v>45.46</v>
       </c>
+      <c r="Q16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1350,6 +1400,9 @@
       <c r="P17" t="n">
         <v>37.94</v>
       </c>
+      <c r="Q17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1402,6 +1455,9 @@
       <c r="P18" t="n">
         <v>48.26</v>
       </c>
+      <c r="Q18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1454,6 +1510,9 @@
       <c r="P19" t="n">
         <v>33.06</v>
       </c>
+      <c r="Q19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1506,6 +1565,9 @@
       <c r="P20" t="n">
         <v>36.05</v>
       </c>
+      <c r="Q20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1558,6 +1620,9 @@
       <c r="P21" t="n">
         <v>54.84</v>
       </c>
+      <c r="Q21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1610,6 +1675,9 @@
       <c r="P22" t="n">
         <v>60.85</v>
       </c>
+      <c r="Q22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1662,6 +1730,9 @@
       <c r="P23" t="n">
         <v>60.9</v>
       </c>
+      <c r="Q23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1714,6 +1785,9 @@
       <c r="P24" t="n">
         <v>59.43</v>
       </c>
+      <c r="Q24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1766,6 +1840,9 @@
       <c r="P25" t="n">
         <v>36.73</v>
       </c>
+      <c r="Q25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1818,6 +1895,9 @@
       <c r="P26" t="n">
         <v>45.78</v>
       </c>
+      <c r="Q26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1870,6 +1950,9 @@
       <c r="P27" t="n">
         <v>52.06</v>
       </c>
+      <c r="Q27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1922,6 +2005,9 @@
       <c r="P28" t="n">
         <v>46.01</v>
       </c>
+      <c r="Q28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1974,6 +2060,9 @@
       <c r="P29" t="n">
         <v>34.12</v>
       </c>
+      <c r="Q29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2026,6 +2115,9 @@
       <c r="P30" t="n">
         <v>62.59</v>
       </c>
+      <c r="Q30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2078,6 +2170,9 @@
       <c r="P31" t="n">
         <v>31.42</v>
       </c>
+      <c r="Q31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2130,6 +2225,9 @@
       <c r="P32" t="n">
         <v>46.53</v>
       </c>
+      <c r="Q32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2182,6 +2280,9 @@
       <c r="P33" t="n">
         <v>42.41</v>
       </c>
+      <c r="Q33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2232,6 +2333,9 @@
         <v>45.98</v>
       </c>
       <c r="P34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="Q34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>2025-10-07</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -578,6 +583,9 @@
       <c r="Q2" t="n">
         <v>39.66</v>
       </c>
+      <c r="R2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -633,6 +641,9 @@
       <c r="Q3" t="n">
         <v>63.46</v>
       </c>
+      <c r="R3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -688,6 +699,9 @@
       <c r="Q4" t="n">
         <v>38.5</v>
       </c>
+      <c r="R4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -743,6 +757,9 @@
       <c r="Q5" t="n">
         <v>53.66</v>
       </c>
+      <c r="R5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -798,6 +815,9 @@
       <c r="Q6" t="n">
         <v>48.01</v>
       </c>
+      <c r="R6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -853,6 +873,9 @@
       <c r="Q7" t="n">
         <v>55.04</v>
       </c>
+      <c r="R7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -908,6 +931,9 @@
       <c r="Q8" t="n">
         <v>56.89</v>
       </c>
+      <c r="R8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -963,6 +989,9 @@
       <c r="Q9" t="n">
         <v>65.3</v>
       </c>
+      <c r="R9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1018,6 +1047,9 @@
       <c r="Q10" t="n">
         <v>55.69</v>
       </c>
+      <c r="R10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1073,6 +1105,9 @@
       <c r="Q11" t="n">
         <v>61.86</v>
       </c>
+      <c r="R11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1128,6 +1163,9 @@
       <c r="Q12" t="n">
         <v>46.47</v>
       </c>
+      <c r="R12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1183,6 +1221,9 @@
       <c r="Q13" t="n">
         <v>62.83</v>
       </c>
+      <c r="R13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1238,6 +1279,9 @@
       <c r="Q14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="R14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1293,6 +1337,9 @@
       <c r="Q15" t="n">
         <v>52.95</v>
       </c>
+      <c r="R15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1348,6 +1395,9 @@
       <c r="Q16" t="n">
         <v>45.46</v>
       </c>
+      <c r="R16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1403,6 +1453,9 @@
       <c r="Q17" t="n">
         <v>37.94</v>
       </c>
+      <c r="R17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1458,6 +1511,9 @@
       <c r="Q18" t="n">
         <v>48.26</v>
       </c>
+      <c r="R18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1513,6 +1569,9 @@
       <c r="Q19" t="n">
         <v>33.06</v>
       </c>
+      <c r="R19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1568,6 +1627,9 @@
       <c r="Q20" t="n">
         <v>36.05</v>
       </c>
+      <c r="R20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1623,6 +1685,9 @@
       <c r="Q21" t="n">
         <v>54.84</v>
       </c>
+      <c r="R21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1678,6 +1743,9 @@
       <c r="Q22" t="n">
         <v>60.85</v>
       </c>
+      <c r="R22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1733,6 +1801,9 @@
       <c r="Q23" t="n">
         <v>60.9</v>
       </c>
+      <c r="R23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1788,6 +1859,9 @@
       <c r="Q24" t="n">
         <v>59.43</v>
       </c>
+      <c r="R24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1843,6 +1917,9 @@
       <c r="Q25" t="n">
         <v>36.73</v>
       </c>
+      <c r="R25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1898,6 +1975,9 @@
       <c r="Q26" t="n">
         <v>45.78</v>
       </c>
+      <c r="R26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1953,6 +2033,9 @@
       <c r="Q27" t="n">
         <v>52.06</v>
       </c>
+      <c r="R27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2008,6 +2091,9 @@
       <c r="Q28" t="n">
         <v>46.01</v>
       </c>
+      <c r="R28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2063,6 +2149,9 @@
       <c r="Q29" t="n">
         <v>34.12</v>
       </c>
+      <c r="R29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2118,6 +2207,9 @@
       <c r="Q30" t="n">
         <v>62.59</v>
       </c>
+      <c r="R30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2173,6 +2265,9 @@
       <c r="Q31" t="n">
         <v>31.42</v>
       </c>
+      <c r="R31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2228,6 +2323,9 @@
       <c r="Q32" t="n">
         <v>46.53</v>
       </c>
+      <c r="R32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2283,6 +2381,9 @@
       <c r="Q33" t="n">
         <v>42.41</v>
       </c>
+      <c r="R33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2336,6 +2437,9 @@
         <v>45.98</v>
       </c>
       <c r="Q34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="R34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,11 @@
           <t>2025-10-14</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -586,6 +591,9 @@
       <c r="R2" t="n">
         <v>39.66</v>
       </c>
+      <c r="S2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -644,6 +652,9 @@
       <c r="R3" t="n">
         <v>63.46</v>
       </c>
+      <c r="S3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -702,6 +713,9 @@
       <c r="R4" t="n">
         <v>38.5</v>
       </c>
+      <c r="S4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -760,6 +774,9 @@
       <c r="R5" t="n">
         <v>53.66</v>
       </c>
+      <c r="S5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -818,6 +835,9 @@
       <c r="R6" t="n">
         <v>48.01</v>
       </c>
+      <c r="S6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -876,6 +896,9 @@
       <c r="R7" t="n">
         <v>55.04</v>
       </c>
+      <c r="S7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -934,6 +957,9 @@
       <c r="R8" t="n">
         <v>56.89</v>
       </c>
+      <c r="S8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -992,6 +1018,9 @@
       <c r="R9" t="n">
         <v>65.3</v>
       </c>
+      <c r="S9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1050,6 +1079,9 @@
       <c r="R10" t="n">
         <v>55.69</v>
       </c>
+      <c r="S10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1108,6 +1140,9 @@
       <c r="R11" t="n">
         <v>61.86</v>
       </c>
+      <c r="S11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1166,6 +1201,9 @@
       <c r="R12" t="n">
         <v>46.47</v>
       </c>
+      <c r="S12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1224,6 +1262,9 @@
       <c r="R13" t="n">
         <v>62.83</v>
       </c>
+      <c r="S13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1282,6 +1323,9 @@
       <c r="R14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="S14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1340,6 +1384,9 @@
       <c r="R15" t="n">
         <v>52.95</v>
       </c>
+      <c r="S15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1398,6 +1445,9 @@
       <c r="R16" t="n">
         <v>45.46</v>
       </c>
+      <c r="S16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1456,6 +1506,9 @@
       <c r="R17" t="n">
         <v>37.94</v>
       </c>
+      <c r="S17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1514,6 +1567,9 @@
       <c r="R18" t="n">
         <v>48.26</v>
       </c>
+      <c r="S18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1572,6 +1628,9 @@
       <c r="R19" t="n">
         <v>33.06</v>
       </c>
+      <c r="S19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1630,6 +1689,9 @@
       <c r="R20" t="n">
         <v>36.05</v>
       </c>
+      <c r="S20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1688,6 +1750,9 @@
       <c r="R21" t="n">
         <v>54.84</v>
       </c>
+      <c r="S21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1746,6 +1811,9 @@
       <c r="R22" t="n">
         <v>60.85</v>
       </c>
+      <c r="S22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1804,6 +1872,9 @@
       <c r="R23" t="n">
         <v>60.9</v>
       </c>
+      <c r="S23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1862,6 +1933,9 @@
       <c r="R24" t="n">
         <v>59.43</v>
       </c>
+      <c r="S24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1920,6 +1994,9 @@
       <c r="R25" t="n">
         <v>36.73</v>
       </c>
+      <c r="S25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1978,6 +2055,9 @@
       <c r="R26" t="n">
         <v>45.78</v>
       </c>
+      <c r="S26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2036,6 +2116,9 @@
       <c r="R27" t="n">
         <v>52.06</v>
       </c>
+      <c r="S27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2094,6 +2177,9 @@
       <c r="R28" t="n">
         <v>46.01</v>
       </c>
+      <c r="S28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2152,6 +2238,9 @@
       <c r="R29" t="n">
         <v>34.12</v>
       </c>
+      <c r="S29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2210,6 +2299,9 @@
       <c r="R30" t="n">
         <v>62.59</v>
       </c>
+      <c r="S30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2268,6 +2360,9 @@
       <c r="R31" t="n">
         <v>31.42</v>
       </c>
+      <c r="S31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2326,6 +2421,9 @@
       <c r="R32" t="n">
         <v>46.53</v>
       </c>
+      <c r="S32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2384,6 +2482,9 @@
       <c r="R33" t="n">
         <v>42.41</v>
       </c>
+      <c r="S33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2440,6 +2541,9 @@
         <v>45.98</v>
       </c>
       <c r="R34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="S34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,11 @@
           <t>2025-10-21</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -594,6 +599,9 @@
       <c r="S2" t="n">
         <v>39.66</v>
       </c>
+      <c r="T2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -655,6 +663,9 @@
       <c r="S3" t="n">
         <v>63.46</v>
       </c>
+      <c r="T3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -716,6 +727,9 @@
       <c r="S4" t="n">
         <v>38.5</v>
       </c>
+      <c r="T4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -777,6 +791,9 @@
       <c r="S5" t="n">
         <v>53.66</v>
       </c>
+      <c r="T5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -838,6 +855,9 @@
       <c r="S6" t="n">
         <v>48.01</v>
       </c>
+      <c r="T6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -899,6 +919,9 @@
       <c r="S7" t="n">
         <v>55.04</v>
       </c>
+      <c r="T7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -960,6 +983,9 @@
       <c r="S8" t="n">
         <v>56.89</v>
       </c>
+      <c r="T8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1021,6 +1047,9 @@
       <c r="S9" t="n">
         <v>65.3</v>
       </c>
+      <c r="T9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1082,6 +1111,9 @@
       <c r="S10" t="n">
         <v>55.69</v>
       </c>
+      <c r="T10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1143,6 +1175,9 @@
       <c r="S11" t="n">
         <v>61.86</v>
       </c>
+      <c r="T11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1204,6 +1239,9 @@
       <c r="S12" t="n">
         <v>46.47</v>
       </c>
+      <c r="T12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1265,6 +1303,9 @@
       <c r="S13" t="n">
         <v>62.83</v>
       </c>
+      <c r="T13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1326,6 +1367,9 @@
       <c r="S14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="T14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1387,6 +1431,9 @@
       <c r="S15" t="n">
         <v>52.95</v>
       </c>
+      <c r="T15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1448,6 +1495,9 @@
       <c r="S16" t="n">
         <v>45.46</v>
       </c>
+      <c r="T16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1509,6 +1559,9 @@
       <c r="S17" t="n">
         <v>37.94</v>
       </c>
+      <c r="T17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1570,6 +1623,9 @@
       <c r="S18" t="n">
         <v>48.26</v>
       </c>
+      <c r="T18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1631,6 +1687,9 @@
       <c r="S19" t="n">
         <v>33.06</v>
       </c>
+      <c r="T19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1692,6 +1751,9 @@
       <c r="S20" t="n">
         <v>36.05</v>
       </c>
+      <c r="T20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1753,6 +1815,9 @@
       <c r="S21" t="n">
         <v>54.84</v>
       </c>
+      <c r="T21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1814,6 +1879,9 @@
       <c r="S22" t="n">
         <v>60.85</v>
       </c>
+      <c r="T22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1875,6 +1943,9 @@
       <c r="S23" t="n">
         <v>60.9</v>
       </c>
+      <c r="T23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1936,6 +2007,9 @@
       <c r="S24" t="n">
         <v>59.43</v>
       </c>
+      <c r="T24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1997,6 +2071,9 @@
       <c r="S25" t="n">
         <v>36.73</v>
       </c>
+      <c r="T25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2058,6 +2135,9 @@
       <c r="S26" t="n">
         <v>45.78</v>
       </c>
+      <c r="T26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2119,6 +2199,9 @@
       <c r="S27" t="n">
         <v>52.06</v>
       </c>
+      <c r="T27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2180,6 +2263,9 @@
       <c r="S28" t="n">
         <v>46.01</v>
       </c>
+      <c r="T28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2241,6 +2327,9 @@
       <c r="S29" t="n">
         <v>34.12</v>
       </c>
+      <c r="T29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2302,6 +2391,9 @@
       <c r="S30" t="n">
         <v>62.59</v>
       </c>
+      <c r="T30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2363,6 +2455,9 @@
       <c r="S31" t="n">
         <v>31.42</v>
       </c>
+      <c r="T31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2424,6 +2519,9 @@
       <c r="S32" t="n">
         <v>46.53</v>
       </c>
+      <c r="T32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2485,6 +2583,9 @@
       <c r="S33" t="n">
         <v>42.41</v>
       </c>
+      <c r="T33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2544,6 +2645,9 @@
         <v>45.98</v>
       </c>
       <c r="S34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="T34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,6 +538,11 @@
           <t>2025-10-28</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -602,6 +607,9 @@
       <c r="T2" t="n">
         <v>39.66</v>
       </c>
+      <c r="U2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -666,6 +674,9 @@
       <c r="T3" t="n">
         <v>63.46</v>
       </c>
+      <c r="U3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -730,6 +741,9 @@
       <c r="T4" t="n">
         <v>38.5</v>
       </c>
+      <c r="U4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -794,6 +808,9 @@
       <c r="T5" t="n">
         <v>53.66</v>
       </c>
+      <c r="U5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -858,6 +875,9 @@
       <c r="T6" t="n">
         <v>48.01</v>
       </c>
+      <c r="U6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -922,6 +942,9 @@
       <c r="T7" t="n">
         <v>55.04</v>
       </c>
+      <c r="U7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -986,6 +1009,9 @@
       <c r="T8" t="n">
         <v>56.89</v>
       </c>
+      <c r="U8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1050,6 +1076,9 @@
       <c r="T9" t="n">
         <v>65.3</v>
       </c>
+      <c r="U9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1114,6 +1143,9 @@
       <c r="T10" t="n">
         <v>55.69</v>
       </c>
+      <c r="U10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1178,6 +1210,9 @@
       <c r="T11" t="n">
         <v>61.86</v>
       </c>
+      <c r="U11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1242,6 +1277,9 @@
       <c r="T12" t="n">
         <v>46.47</v>
       </c>
+      <c r="U12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1306,6 +1344,9 @@
       <c r="T13" t="n">
         <v>62.83</v>
       </c>
+      <c r="U13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1370,6 +1411,9 @@
       <c r="T14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="U14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1434,6 +1478,9 @@
       <c r="T15" t="n">
         <v>52.95</v>
       </c>
+      <c r="U15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1498,6 +1545,9 @@
       <c r="T16" t="n">
         <v>45.46</v>
       </c>
+      <c r="U16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1562,6 +1612,9 @@
       <c r="T17" t="n">
         <v>37.94</v>
       </c>
+      <c r="U17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1626,6 +1679,9 @@
       <c r="T18" t="n">
         <v>48.26</v>
       </c>
+      <c r="U18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1690,6 +1746,9 @@
       <c r="T19" t="n">
         <v>33.06</v>
       </c>
+      <c r="U19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1754,6 +1813,9 @@
       <c r="T20" t="n">
         <v>36.05</v>
       </c>
+      <c r="U20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1818,6 +1880,9 @@
       <c r="T21" t="n">
         <v>54.84</v>
       </c>
+      <c r="U21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1882,6 +1947,9 @@
       <c r="T22" t="n">
         <v>60.85</v>
       </c>
+      <c r="U22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1946,6 +2014,9 @@
       <c r="T23" t="n">
         <v>60.9</v>
       </c>
+      <c r="U23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2010,6 +2081,9 @@
       <c r="T24" t="n">
         <v>59.43</v>
       </c>
+      <c r="U24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2074,6 +2148,9 @@
       <c r="T25" t="n">
         <v>36.73</v>
       </c>
+      <c r="U25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2138,6 +2215,9 @@
       <c r="T26" t="n">
         <v>45.78</v>
       </c>
+      <c r="U26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2202,6 +2282,9 @@
       <c r="T27" t="n">
         <v>52.06</v>
       </c>
+      <c r="U27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2266,6 +2349,9 @@
       <c r="T28" t="n">
         <v>46.01</v>
       </c>
+      <c r="U28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2330,6 +2416,9 @@
       <c r="T29" t="n">
         <v>34.12</v>
       </c>
+      <c r="U29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2394,6 +2483,9 @@
       <c r="T30" t="n">
         <v>62.59</v>
       </c>
+      <c r="U30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2458,6 +2550,9 @@
       <c r="T31" t="n">
         <v>31.42</v>
       </c>
+      <c r="U31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2522,6 +2617,9 @@
       <c r="T32" t="n">
         <v>46.53</v>
       </c>
+      <c r="U32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2586,6 +2684,9 @@
       <c r="T33" t="n">
         <v>42.41</v>
       </c>
+      <c r="U33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2648,6 +2749,9 @@
         <v>45.98</v>
       </c>
       <c r="T34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="U34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,11 @@
           <t>2025-11-04</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -610,6 +615,9 @@
       <c r="U2" t="n">
         <v>39.66</v>
       </c>
+      <c r="V2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -677,6 +685,9 @@
       <c r="U3" t="n">
         <v>63.46</v>
       </c>
+      <c r="V3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -744,6 +755,9 @@
       <c r="U4" t="n">
         <v>38.5</v>
       </c>
+      <c r="V4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -811,6 +825,9 @@
       <c r="U5" t="n">
         <v>53.66</v>
       </c>
+      <c r="V5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -878,6 +895,9 @@
       <c r="U6" t="n">
         <v>48.01</v>
       </c>
+      <c r="V6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -945,6 +965,9 @@
       <c r="U7" t="n">
         <v>55.04</v>
       </c>
+      <c r="V7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1012,6 +1035,9 @@
       <c r="U8" t="n">
         <v>56.89</v>
       </c>
+      <c r="V8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1079,6 +1105,9 @@
       <c r="U9" t="n">
         <v>65.3</v>
       </c>
+      <c r="V9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1146,6 +1175,9 @@
       <c r="U10" t="n">
         <v>55.69</v>
       </c>
+      <c r="V10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1213,6 +1245,9 @@
       <c r="U11" t="n">
         <v>61.86</v>
       </c>
+      <c r="V11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1280,6 +1315,9 @@
       <c r="U12" t="n">
         <v>46.47</v>
       </c>
+      <c r="V12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1347,6 +1385,9 @@
       <c r="U13" t="n">
         <v>62.83</v>
       </c>
+      <c r="V13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1414,6 +1455,9 @@
       <c r="U14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="V14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1481,6 +1525,9 @@
       <c r="U15" t="n">
         <v>52.95</v>
       </c>
+      <c r="V15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1548,6 +1595,9 @@
       <c r="U16" t="n">
         <v>45.46</v>
       </c>
+      <c r="V16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1615,6 +1665,9 @@
       <c r="U17" t="n">
         <v>37.94</v>
       </c>
+      <c r="V17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1682,6 +1735,9 @@
       <c r="U18" t="n">
         <v>48.26</v>
       </c>
+      <c r="V18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1749,6 +1805,9 @@
       <c r="U19" t="n">
         <v>33.06</v>
       </c>
+      <c r="V19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1816,6 +1875,9 @@
       <c r="U20" t="n">
         <v>36.05</v>
       </c>
+      <c r="V20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1883,6 +1945,9 @@
       <c r="U21" t="n">
         <v>54.84</v>
       </c>
+      <c r="V21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1950,6 +2015,9 @@
       <c r="U22" t="n">
         <v>60.85</v>
       </c>
+      <c r="V22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2017,6 +2085,9 @@
       <c r="U23" t="n">
         <v>60.9</v>
       </c>
+      <c r="V23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2084,6 +2155,9 @@
       <c r="U24" t="n">
         <v>59.43</v>
       </c>
+      <c r="V24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2151,6 +2225,9 @@
       <c r="U25" t="n">
         <v>36.73</v>
       </c>
+      <c r="V25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2218,6 +2295,9 @@
       <c r="U26" t="n">
         <v>45.78</v>
       </c>
+      <c r="V26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2285,6 +2365,9 @@
       <c r="U27" t="n">
         <v>52.06</v>
       </c>
+      <c r="V27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2352,6 +2435,9 @@
       <c r="U28" t="n">
         <v>46.01</v>
       </c>
+      <c r="V28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2419,6 +2505,9 @@
       <c r="U29" t="n">
         <v>34.12</v>
       </c>
+      <c r="V29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2486,6 +2575,9 @@
       <c r="U30" t="n">
         <v>62.59</v>
       </c>
+      <c r="V30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2553,6 +2645,9 @@
       <c r="U31" t="n">
         <v>31.42</v>
       </c>
+      <c r="V31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2620,6 +2715,9 @@
       <c r="U32" t="n">
         <v>46.53</v>
       </c>
+      <c r="V32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2687,6 +2785,9 @@
       <c r="U33" t="n">
         <v>42.41</v>
       </c>
+      <c r="V33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2752,6 +2853,9 @@
         <v>45.98</v>
       </c>
       <c r="U34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="V34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,11 @@
           <t>2025-11-11</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -618,6 +623,9 @@
       <c r="V2" t="n">
         <v>39.66</v>
       </c>
+      <c r="W2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -688,6 +696,9 @@
       <c r="V3" t="n">
         <v>63.46</v>
       </c>
+      <c r="W3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -758,6 +769,9 @@
       <c r="V4" t="n">
         <v>38.5</v>
       </c>
+      <c r="W4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -828,6 +842,9 @@
       <c r="V5" t="n">
         <v>53.66</v>
       </c>
+      <c r="W5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -898,6 +915,9 @@
       <c r="V6" t="n">
         <v>48.01</v>
       </c>
+      <c r="W6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -968,6 +988,9 @@
       <c r="V7" t="n">
         <v>55.04</v>
       </c>
+      <c r="W7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1038,6 +1061,9 @@
       <c r="V8" t="n">
         <v>56.89</v>
       </c>
+      <c r="W8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1108,6 +1134,9 @@
       <c r="V9" t="n">
         <v>65.3</v>
       </c>
+      <c r="W9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1178,6 +1207,9 @@
       <c r="V10" t="n">
         <v>55.69</v>
       </c>
+      <c r="W10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1248,6 +1280,9 @@
       <c r="V11" t="n">
         <v>61.86</v>
       </c>
+      <c r="W11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1318,6 +1353,9 @@
       <c r="V12" t="n">
         <v>46.47</v>
       </c>
+      <c r="W12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1388,6 +1426,9 @@
       <c r="V13" t="n">
         <v>62.83</v>
       </c>
+      <c r="W13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1458,6 +1499,9 @@
       <c r="V14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="W14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1528,6 +1572,9 @@
       <c r="V15" t="n">
         <v>52.95</v>
       </c>
+      <c r="W15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1598,6 +1645,9 @@
       <c r="V16" t="n">
         <v>45.46</v>
       </c>
+      <c r="W16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1668,6 +1718,9 @@
       <c r="V17" t="n">
         <v>37.94</v>
       </c>
+      <c r="W17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1738,6 +1791,9 @@
       <c r="V18" t="n">
         <v>48.26</v>
       </c>
+      <c r="W18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1808,6 +1864,9 @@
       <c r="V19" t="n">
         <v>33.06</v>
       </c>
+      <c r="W19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1878,6 +1937,9 @@
       <c r="V20" t="n">
         <v>36.05</v>
       </c>
+      <c r="W20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1948,6 +2010,9 @@
       <c r="V21" t="n">
         <v>54.84</v>
       </c>
+      <c r="W21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2018,6 +2083,9 @@
       <c r="V22" t="n">
         <v>60.85</v>
       </c>
+      <c r="W22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2088,6 +2156,9 @@
       <c r="V23" t="n">
         <v>60.9</v>
       </c>
+      <c r="W23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2158,6 +2229,9 @@
       <c r="V24" t="n">
         <v>59.43</v>
       </c>
+      <c r="W24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2228,6 +2302,9 @@
       <c r="V25" t="n">
         <v>36.73</v>
       </c>
+      <c r="W25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2298,6 +2375,9 @@
       <c r="V26" t="n">
         <v>45.78</v>
       </c>
+      <c r="W26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2368,6 +2448,9 @@
       <c r="V27" t="n">
         <v>52.06</v>
       </c>
+      <c r="W27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2438,6 +2521,9 @@
       <c r="V28" t="n">
         <v>46.01</v>
       </c>
+      <c r="W28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2508,6 +2594,9 @@
       <c r="V29" t="n">
         <v>34.12</v>
       </c>
+      <c r="W29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2578,6 +2667,9 @@
       <c r="V30" t="n">
         <v>62.59</v>
       </c>
+      <c r="W30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2648,6 +2740,9 @@
       <c r="V31" t="n">
         <v>31.42</v>
       </c>
+      <c r="W31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2718,6 +2813,9 @@
       <c r="V32" t="n">
         <v>46.53</v>
       </c>
+      <c r="W32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2788,6 +2886,9 @@
       <c r="V33" t="n">
         <v>42.41</v>
       </c>
+      <c r="W33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2856,6 +2957,9 @@
         <v>45.98</v>
       </c>
       <c r="V34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="W34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,11 @@
           <t>2025-11-18</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -626,6 +631,9 @@
       <c r="W2" t="n">
         <v>39.66</v>
       </c>
+      <c r="X2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -699,6 +707,9 @@
       <c r="W3" t="n">
         <v>63.46</v>
       </c>
+      <c r="X3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -772,6 +783,9 @@
       <c r="W4" t="n">
         <v>38.5</v>
       </c>
+      <c r="X4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -845,6 +859,9 @@
       <c r="W5" t="n">
         <v>53.66</v>
       </c>
+      <c r="X5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -918,6 +935,9 @@
       <c r="W6" t="n">
         <v>48.01</v>
       </c>
+      <c r="X6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -991,6 +1011,9 @@
       <c r="W7" t="n">
         <v>55.04</v>
       </c>
+      <c r="X7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1064,6 +1087,9 @@
       <c r="W8" t="n">
         <v>56.89</v>
       </c>
+      <c r="X8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1137,6 +1163,9 @@
       <c r="W9" t="n">
         <v>65.3</v>
       </c>
+      <c r="X9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1210,6 +1239,9 @@
       <c r="W10" t="n">
         <v>55.69</v>
       </c>
+      <c r="X10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1283,6 +1315,9 @@
       <c r="W11" t="n">
         <v>61.86</v>
       </c>
+      <c r="X11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1356,6 +1391,9 @@
       <c r="W12" t="n">
         <v>46.47</v>
       </c>
+      <c r="X12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1429,6 +1467,9 @@
       <c r="W13" t="n">
         <v>62.83</v>
       </c>
+      <c r="X13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1502,6 +1543,9 @@
       <c r="W14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="X14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1575,6 +1619,9 @@
       <c r="W15" t="n">
         <v>52.95</v>
       </c>
+      <c r="X15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1648,6 +1695,9 @@
       <c r="W16" t="n">
         <v>45.46</v>
       </c>
+      <c r="X16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1721,6 +1771,9 @@
       <c r="W17" t="n">
         <v>37.94</v>
       </c>
+      <c r="X17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1794,6 +1847,9 @@
       <c r="W18" t="n">
         <v>48.26</v>
       </c>
+      <c r="X18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1867,6 +1923,9 @@
       <c r="W19" t="n">
         <v>33.06</v>
       </c>
+      <c r="X19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1940,6 +1999,9 @@
       <c r="W20" t="n">
         <v>36.05</v>
       </c>
+      <c r="X20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2013,6 +2075,9 @@
       <c r="W21" t="n">
         <v>54.84</v>
       </c>
+      <c r="X21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2086,6 +2151,9 @@
       <c r="W22" t="n">
         <v>60.85</v>
       </c>
+      <c r="X22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2159,6 +2227,9 @@
       <c r="W23" t="n">
         <v>60.9</v>
       </c>
+      <c r="X23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2232,6 +2303,9 @@
       <c r="W24" t="n">
         <v>59.43</v>
       </c>
+      <c r="X24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2305,6 +2379,9 @@
       <c r="W25" t="n">
         <v>36.73</v>
       </c>
+      <c r="X25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2378,6 +2455,9 @@
       <c r="W26" t="n">
         <v>45.78</v>
       </c>
+      <c r="X26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2451,6 +2531,9 @@
       <c r="W27" t="n">
         <v>52.06</v>
       </c>
+      <c r="X27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2524,6 +2607,9 @@
       <c r="W28" t="n">
         <v>46.01</v>
       </c>
+      <c r="X28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2597,6 +2683,9 @@
       <c r="W29" t="n">
         <v>34.12</v>
       </c>
+      <c r="X29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2670,6 +2759,9 @@
       <c r="W30" t="n">
         <v>62.59</v>
       </c>
+      <c r="X30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2743,6 +2835,9 @@
       <c r="W31" t="n">
         <v>31.42</v>
       </c>
+      <c r="X31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2816,6 +2911,9 @@
       <c r="W32" t="n">
         <v>46.53</v>
       </c>
+      <c r="X32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2889,6 +2987,9 @@
       <c r="W33" t="n">
         <v>42.41</v>
       </c>
+      <c r="X33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2960,6 +3061,9 @@
         <v>45.98</v>
       </c>
       <c r="W34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="X34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,6 +558,11 @@
           <t>2025-11-25</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -634,6 +639,9 @@
       <c r="X2" t="n">
         <v>39.66</v>
       </c>
+      <c r="Y2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -710,6 +718,9 @@
       <c r="X3" t="n">
         <v>63.46</v>
       </c>
+      <c r="Y3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -786,6 +797,9 @@
       <c r="X4" t="n">
         <v>38.5</v>
       </c>
+      <c r="Y4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -862,6 +876,9 @@
       <c r="X5" t="n">
         <v>53.66</v>
       </c>
+      <c r="Y5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -938,6 +955,9 @@
       <c r="X6" t="n">
         <v>48.01</v>
       </c>
+      <c r="Y6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1014,6 +1034,9 @@
       <c r="X7" t="n">
         <v>55.04</v>
       </c>
+      <c r="Y7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1090,6 +1113,9 @@
       <c r="X8" t="n">
         <v>56.89</v>
       </c>
+      <c r="Y8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1166,6 +1192,9 @@
       <c r="X9" t="n">
         <v>65.3</v>
       </c>
+      <c r="Y9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1242,6 +1271,9 @@
       <c r="X10" t="n">
         <v>55.69</v>
       </c>
+      <c r="Y10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1318,6 +1350,9 @@
       <c r="X11" t="n">
         <v>61.86</v>
       </c>
+      <c r="Y11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1394,6 +1429,9 @@
       <c r="X12" t="n">
         <v>46.47</v>
       </c>
+      <c r="Y12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1470,6 +1508,9 @@
       <c r="X13" t="n">
         <v>62.83</v>
       </c>
+      <c r="Y13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1546,6 +1587,9 @@
       <c r="X14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="Y14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1622,6 +1666,9 @@
       <c r="X15" t="n">
         <v>52.95</v>
       </c>
+      <c r="Y15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1698,6 +1745,9 @@
       <c r="X16" t="n">
         <v>45.46</v>
       </c>
+      <c r="Y16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1774,6 +1824,9 @@
       <c r="X17" t="n">
         <v>37.94</v>
       </c>
+      <c r="Y17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1850,6 +1903,9 @@
       <c r="X18" t="n">
         <v>48.26</v>
       </c>
+      <c r="Y18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1926,6 +1982,9 @@
       <c r="X19" t="n">
         <v>33.06</v>
       </c>
+      <c r="Y19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2002,6 +2061,9 @@
       <c r="X20" t="n">
         <v>36.05</v>
       </c>
+      <c r="Y20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2078,6 +2140,9 @@
       <c r="X21" t="n">
         <v>54.84</v>
       </c>
+      <c r="Y21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2154,6 +2219,9 @@
       <c r="X22" t="n">
         <v>60.85</v>
       </c>
+      <c r="Y22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2230,6 +2298,9 @@
       <c r="X23" t="n">
         <v>60.9</v>
       </c>
+      <c r="Y23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2306,6 +2377,9 @@
       <c r="X24" t="n">
         <v>59.43</v>
       </c>
+      <c r="Y24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2382,6 +2456,9 @@
       <c r="X25" t="n">
         <v>36.73</v>
       </c>
+      <c r="Y25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2458,6 +2535,9 @@
       <c r="X26" t="n">
         <v>45.78</v>
       </c>
+      <c r="Y26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2534,6 +2614,9 @@
       <c r="X27" t="n">
         <v>52.06</v>
       </c>
+      <c r="Y27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2610,6 +2693,9 @@
       <c r="X28" t="n">
         <v>46.01</v>
       </c>
+      <c r="Y28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2686,6 +2772,9 @@
       <c r="X29" t="n">
         <v>34.12</v>
       </c>
+      <c r="Y29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2762,6 +2851,9 @@
       <c r="X30" t="n">
         <v>62.59</v>
       </c>
+      <c r="Y30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2838,6 +2930,9 @@
       <c r="X31" t="n">
         <v>31.42</v>
       </c>
+      <c r="Y31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2914,6 +3009,9 @@
       <c r="X32" t="n">
         <v>46.53</v>
       </c>
+      <c r="Y32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2990,6 +3088,9 @@
       <c r="X33" t="n">
         <v>42.41</v>
       </c>
+      <c r="Y33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3064,6 +3165,9 @@
         <v>45.98</v>
       </c>
       <c r="X34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="Y34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,11 @@
           <t>2025-12-02</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -642,6 +647,9 @@
       <c r="Y2" t="n">
         <v>39.66</v>
       </c>
+      <c r="Z2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -721,6 +729,9 @@
       <c r="Y3" t="n">
         <v>63.46</v>
       </c>
+      <c r="Z3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -800,6 +811,9 @@
       <c r="Y4" t="n">
         <v>38.5</v>
       </c>
+      <c r="Z4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -879,6 +893,9 @@
       <c r="Y5" t="n">
         <v>53.66</v>
       </c>
+      <c r="Z5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -958,6 +975,9 @@
       <c r="Y6" t="n">
         <v>48.01</v>
       </c>
+      <c r="Z6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1037,6 +1057,9 @@
       <c r="Y7" t="n">
         <v>55.04</v>
       </c>
+      <c r="Z7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1116,6 +1139,9 @@
       <c r="Y8" t="n">
         <v>56.89</v>
       </c>
+      <c r="Z8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1195,6 +1221,9 @@
       <c r="Y9" t="n">
         <v>65.3</v>
       </c>
+      <c r="Z9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1274,6 +1303,9 @@
       <c r="Y10" t="n">
         <v>55.69</v>
       </c>
+      <c r="Z10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1353,6 +1385,9 @@
       <c r="Y11" t="n">
         <v>61.86</v>
       </c>
+      <c r="Z11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1432,6 +1467,9 @@
       <c r="Y12" t="n">
         <v>46.47</v>
       </c>
+      <c r="Z12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1511,6 +1549,9 @@
       <c r="Y13" t="n">
         <v>62.83</v>
       </c>
+      <c r="Z13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1590,6 +1631,9 @@
       <c r="Y14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="Z14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1669,6 +1713,9 @@
       <c r="Y15" t="n">
         <v>52.95</v>
       </c>
+      <c r="Z15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1748,6 +1795,9 @@
       <c r="Y16" t="n">
         <v>45.46</v>
       </c>
+      <c r="Z16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1827,6 +1877,9 @@
       <c r="Y17" t="n">
         <v>37.94</v>
       </c>
+      <c r="Z17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1906,6 +1959,9 @@
       <c r="Y18" t="n">
         <v>48.26</v>
       </c>
+      <c r="Z18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1985,6 +2041,9 @@
       <c r="Y19" t="n">
         <v>33.06</v>
       </c>
+      <c r="Z19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2064,6 +2123,9 @@
       <c r="Y20" t="n">
         <v>36.05</v>
       </c>
+      <c r="Z20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2143,6 +2205,9 @@
       <c r="Y21" t="n">
         <v>54.84</v>
       </c>
+      <c r="Z21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2222,6 +2287,9 @@
       <c r="Y22" t="n">
         <v>60.85</v>
       </c>
+      <c r="Z22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2301,6 +2369,9 @@
       <c r="Y23" t="n">
         <v>60.9</v>
       </c>
+      <c r="Z23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2380,6 +2451,9 @@
       <c r="Y24" t="n">
         <v>59.43</v>
       </c>
+      <c r="Z24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2459,6 +2533,9 @@
       <c r="Y25" t="n">
         <v>36.73</v>
       </c>
+      <c r="Z25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2538,6 +2615,9 @@
       <c r="Y26" t="n">
         <v>45.78</v>
       </c>
+      <c r="Z26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2617,6 +2697,9 @@
       <c r="Y27" t="n">
         <v>52.06</v>
       </c>
+      <c r="Z27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2696,6 +2779,9 @@
       <c r="Y28" t="n">
         <v>46.01</v>
       </c>
+      <c r="Z28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2775,6 +2861,9 @@
       <c r="Y29" t="n">
         <v>34.12</v>
       </c>
+      <c r="Z29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2854,6 +2943,9 @@
       <c r="Y30" t="n">
         <v>62.59</v>
       </c>
+      <c r="Z30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2933,6 +3025,9 @@
       <c r="Y31" t="n">
         <v>31.42</v>
       </c>
+      <c r="Z31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3012,6 +3107,9 @@
       <c r="Y32" t="n">
         <v>46.53</v>
       </c>
+      <c r="Z32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3091,6 +3189,9 @@
       <c r="Y33" t="n">
         <v>42.41</v>
       </c>
+      <c r="Z33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3168,6 +3269,9 @@
         <v>45.98</v>
       </c>
       <c r="Y34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="Z34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +568,11 @@
           <t>2025-12-09</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -650,6 +655,9 @@
       <c r="Z2" t="n">
         <v>39.66</v>
       </c>
+      <c r="AA2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -732,6 +740,9 @@
       <c r="Z3" t="n">
         <v>63.46</v>
       </c>
+      <c r="AA3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -814,6 +825,9 @@
       <c r="Z4" t="n">
         <v>38.5</v>
       </c>
+      <c r="AA4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -896,6 +910,9 @@
       <c r="Z5" t="n">
         <v>53.66</v>
       </c>
+      <c r="AA5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -978,6 +995,9 @@
       <c r="Z6" t="n">
         <v>48.01</v>
       </c>
+      <c r="AA6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1060,6 +1080,9 @@
       <c r="Z7" t="n">
         <v>55.04</v>
       </c>
+      <c r="AA7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1142,6 +1165,9 @@
       <c r="Z8" t="n">
         <v>56.89</v>
       </c>
+      <c r="AA8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1224,6 +1250,9 @@
       <c r="Z9" t="n">
         <v>65.3</v>
       </c>
+      <c r="AA9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1306,6 +1335,9 @@
       <c r="Z10" t="n">
         <v>55.69</v>
       </c>
+      <c r="AA10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1388,6 +1420,9 @@
       <c r="Z11" t="n">
         <v>61.86</v>
       </c>
+      <c r="AA11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1470,6 +1505,9 @@
       <c r="Z12" t="n">
         <v>46.47</v>
       </c>
+      <c r="AA12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1552,6 +1590,9 @@
       <c r="Z13" t="n">
         <v>62.83</v>
       </c>
+      <c r="AA13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1634,6 +1675,9 @@
       <c r="Z14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="AA14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1716,6 +1760,9 @@
       <c r="Z15" t="n">
         <v>52.95</v>
       </c>
+      <c r="AA15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1798,6 +1845,9 @@
       <c r="Z16" t="n">
         <v>45.46</v>
       </c>
+      <c r="AA16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1880,6 +1930,9 @@
       <c r="Z17" t="n">
         <v>37.94</v>
       </c>
+      <c r="AA17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1962,6 +2015,9 @@
       <c r="Z18" t="n">
         <v>48.26</v>
       </c>
+      <c r="AA18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2044,6 +2100,9 @@
       <c r="Z19" t="n">
         <v>33.06</v>
       </c>
+      <c r="AA19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2126,6 +2185,9 @@
       <c r="Z20" t="n">
         <v>36.05</v>
       </c>
+      <c r="AA20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2208,6 +2270,9 @@
       <c r="Z21" t="n">
         <v>54.84</v>
       </c>
+      <c r="AA21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2290,6 +2355,9 @@
       <c r="Z22" t="n">
         <v>60.85</v>
       </c>
+      <c r="AA22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2372,6 +2440,9 @@
       <c r="Z23" t="n">
         <v>60.9</v>
       </c>
+      <c r="AA23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2454,6 +2525,9 @@
       <c r="Z24" t="n">
         <v>59.43</v>
       </c>
+      <c r="AA24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2536,6 +2610,9 @@
       <c r="Z25" t="n">
         <v>36.73</v>
       </c>
+      <c r="AA25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2618,6 +2695,9 @@
       <c r="Z26" t="n">
         <v>45.78</v>
       </c>
+      <c r="AA26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2700,6 +2780,9 @@
       <c r="Z27" t="n">
         <v>52.06</v>
       </c>
+      <c r="AA27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2782,6 +2865,9 @@
       <c r="Z28" t="n">
         <v>46.01</v>
       </c>
+      <c r="AA28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2864,6 +2950,9 @@
       <c r="Z29" t="n">
         <v>34.12</v>
       </c>
+      <c r="AA29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2946,6 +3035,9 @@
       <c r="Z30" t="n">
         <v>62.59</v>
       </c>
+      <c r="AA30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3028,6 +3120,9 @@
       <c r="Z31" t="n">
         <v>31.42</v>
       </c>
+      <c r="AA31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3110,6 +3205,9 @@
       <c r="Z32" t="n">
         <v>46.53</v>
       </c>
+      <c r="AA32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3192,6 +3290,9 @@
       <c r="Z33" t="n">
         <v>42.41</v>
       </c>
+      <c r="AA33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3272,6 +3373,9 @@
         <v>45.98</v>
       </c>
       <c r="Z34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="AA34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,6 +573,11 @@
           <t>2025-12-16</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -658,6 +663,9 @@
       <c r="AA2" t="n">
         <v>39.66</v>
       </c>
+      <c r="AB2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -743,6 +751,9 @@
       <c r="AA3" t="n">
         <v>63.46</v>
       </c>
+      <c r="AB3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -828,6 +839,9 @@
       <c r="AA4" t="n">
         <v>38.5</v>
       </c>
+      <c r="AB4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -913,6 +927,9 @@
       <c r="AA5" t="n">
         <v>53.66</v>
       </c>
+      <c r="AB5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -998,6 +1015,9 @@
       <c r="AA6" t="n">
         <v>48.01</v>
       </c>
+      <c r="AB6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1083,6 +1103,9 @@
       <c r="AA7" t="n">
         <v>55.04</v>
       </c>
+      <c r="AB7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1168,6 +1191,9 @@
       <c r="AA8" t="n">
         <v>56.89</v>
       </c>
+      <c r="AB8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1253,6 +1279,9 @@
       <c r="AA9" t="n">
         <v>65.3</v>
       </c>
+      <c r="AB9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1338,6 +1367,9 @@
       <c r="AA10" t="n">
         <v>55.69</v>
       </c>
+      <c r="AB10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1423,6 +1455,9 @@
       <c r="AA11" t="n">
         <v>61.86</v>
       </c>
+      <c r="AB11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1508,6 +1543,9 @@
       <c r="AA12" t="n">
         <v>46.47</v>
       </c>
+      <c r="AB12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1593,6 +1631,9 @@
       <c r="AA13" t="n">
         <v>62.83</v>
       </c>
+      <c r="AB13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1678,6 +1719,9 @@
       <c r="AA14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="AB14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1763,6 +1807,9 @@
       <c r="AA15" t="n">
         <v>52.95</v>
       </c>
+      <c r="AB15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1848,6 +1895,9 @@
       <c r="AA16" t="n">
         <v>45.46</v>
       </c>
+      <c r="AB16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1933,6 +1983,9 @@
       <c r="AA17" t="n">
         <v>37.94</v>
       </c>
+      <c r="AB17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2018,6 +2071,9 @@
       <c r="AA18" t="n">
         <v>48.26</v>
       </c>
+      <c r="AB18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2103,6 +2159,9 @@
       <c r="AA19" t="n">
         <v>33.06</v>
       </c>
+      <c r="AB19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2188,6 +2247,9 @@
       <c r="AA20" t="n">
         <v>36.05</v>
       </c>
+      <c r="AB20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2273,6 +2335,9 @@
       <c r="AA21" t="n">
         <v>54.84</v>
       </c>
+      <c r="AB21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2358,6 +2423,9 @@
       <c r="AA22" t="n">
         <v>60.85</v>
       </c>
+      <c r="AB22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2443,6 +2511,9 @@
       <c r="AA23" t="n">
         <v>60.9</v>
       </c>
+      <c r="AB23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2528,6 +2599,9 @@
       <c r="AA24" t="n">
         <v>59.43</v>
       </c>
+      <c r="AB24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2613,6 +2687,9 @@
       <c r="AA25" t="n">
         <v>36.73</v>
       </c>
+      <c r="AB25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2698,6 +2775,9 @@
       <c r="AA26" t="n">
         <v>45.78</v>
       </c>
+      <c r="AB26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2783,6 +2863,9 @@
       <c r="AA27" t="n">
         <v>52.06</v>
       </c>
+      <c r="AB27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2868,6 +2951,9 @@
       <c r="AA28" t="n">
         <v>46.01</v>
       </c>
+      <c r="AB28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2953,6 +3039,9 @@
       <c r="AA29" t="n">
         <v>34.12</v>
       </c>
+      <c r="AB29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3038,6 +3127,9 @@
       <c r="AA30" t="n">
         <v>62.59</v>
       </c>
+      <c r="AB30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3123,6 +3215,9 @@
       <c r="AA31" t="n">
         <v>31.42</v>
       </c>
+      <c r="AB31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3208,6 +3303,9 @@
       <c r="AA32" t="n">
         <v>46.53</v>
       </c>
+      <c r="AB32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3293,6 +3391,9 @@
       <c r="AA33" t="n">
         <v>42.41</v>
       </c>
+      <c r="AB33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3376,6 +3477,9 @@
         <v>45.98</v>
       </c>
       <c r="AA34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="AB34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,6 +578,11 @@
           <t>2025-12-23</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -666,6 +671,9 @@
       <c r="AB2" t="n">
         <v>39.66</v>
       </c>
+      <c r="AC2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -754,6 +762,9 @@
       <c r="AB3" t="n">
         <v>63.46</v>
       </c>
+      <c r="AC3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -842,6 +853,9 @@
       <c r="AB4" t="n">
         <v>38.5</v>
       </c>
+      <c r="AC4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -930,6 +944,9 @@
       <c r="AB5" t="n">
         <v>53.66</v>
       </c>
+      <c r="AC5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1018,6 +1035,9 @@
       <c r="AB6" t="n">
         <v>48.01</v>
       </c>
+      <c r="AC6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1106,6 +1126,9 @@
       <c r="AB7" t="n">
         <v>55.04</v>
       </c>
+      <c r="AC7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1194,6 +1217,9 @@
       <c r="AB8" t="n">
         <v>56.89</v>
       </c>
+      <c r="AC8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1282,6 +1308,9 @@
       <c r="AB9" t="n">
         <v>65.3</v>
       </c>
+      <c r="AC9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1370,6 +1399,9 @@
       <c r="AB10" t="n">
         <v>55.69</v>
       </c>
+      <c r="AC10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1458,6 +1490,9 @@
       <c r="AB11" t="n">
         <v>61.86</v>
       </c>
+      <c r="AC11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1546,6 +1581,9 @@
       <c r="AB12" t="n">
         <v>46.47</v>
       </c>
+      <c r="AC12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1634,6 +1672,9 @@
       <c r="AB13" t="n">
         <v>62.83</v>
       </c>
+      <c r="AC13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1722,6 +1763,9 @@
       <c r="AB14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="AC14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1810,6 +1854,9 @@
       <c r="AB15" t="n">
         <v>52.95</v>
       </c>
+      <c r="AC15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1898,6 +1945,9 @@
       <c r="AB16" t="n">
         <v>45.46</v>
       </c>
+      <c r="AC16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1986,6 +2036,9 @@
       <c r="AB17" t="n">
         <v>37.94</v>
       </c>
+      <c r="AC17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2074,6 +2127,9 @@
       <c r="AB18" t="n">
         <v>48.26</v>
       </c>
+      <c r="AC18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2162,6 +2218,9 @@
       <c r="AB19" t="n">
         <v>33.06</v>
       </c>
+      <c r="AC19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2250,6 +2309,9 @@
       <c r="AB20" t="n">
         <v>36.05</v>
       </c>
+      <c r="AC20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2338,6 +2400,9 @@
       <c r="AB21" t="n">
         <v>54.84</v>
       </c>
+      <c r="AC21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2426,6 +2491,9 @@
       <c r="AB22" t="n">
         <v>60.85</v>
       </c>
+      <c r="AC22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2514,6 +2582,9 @@
       <c r="AB23" t="n">
         <v>60.9</v>
       </c>
+      <c r="AC23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2602,6 +2673,9 @@
       <c r="AB24" t="n">
         <v>59.43</v>
       </c>
+      <c r="AC24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2690,6 +2764,9 @@
       <c r="AB25" t="n">
         <v>36.73</v>
       </c>
+      <c r="AC25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2778,6 +2855,9 @@
       <c r="AB26" t="n">
         <v>45.78</v>
       </c>
+      <c r="AC26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2866,6 +2946,9 @@
       <c r="AB27" t="n">
         <v>52.06</v>
       </c>
+      <c r="AC27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2954,6 +3037,9 @@
       <c r="AB28" t="n">
         <v>46.01</v>
       </c>
+      <c r="AC28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3042,6 +3128,9 @@
       <c r="AB29" t="n">
         <v>34.12</v>
       </c>
+      <c r="AC29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3130,6 +3219,9 @@
       <c r="AB30" t="n">
         <v>62.59</v>
       </c>
+      <c r="AC30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3218,6 +3310,9 @@
       <c r="AB31" t="n">
         <v>31.42</v>
       </c>
+      <c r="AC31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3306,6 +3401,9 @@
       <c r="AB32" t="n">
         <v>46.53</v>
       </c>
+      <c r="AC32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3394,6 +3492,9 @@
       <c r="AB33" t="n">
         <v>42.41</v>
       </c>
+      <c r="AC33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3480,6 +3581,9 @@
         <v>45.98</v>
       </c>
       <c r="AB34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="AC34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,6 +583,11 @@
           <t>2025-12-30</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -674,6 +679,9 @@
       <c r="AC2" t="n">
         <v>39.66</v>
       </c>
+      <c r="AD2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -765,6 +773,9 @@
       <c r="AC3" t="n">
         <v>63.46</v>
       </c>
+      <c r="AD3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -856,6 +867,9 @@
       <c r="AC4" t="n">
         <v>38.5</v>
       </c>
+      <c r="AD4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -947,6 +961,9 @@
       <c r="AC5" t="n">
         <v>53.66</v>
       </c>
+      <c r="AD5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1038,6 +1055,9 @@
       <c r="AC6" t="n">
         <v>48.01</v>
       </c>
+      <c r="AD6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1129,6 +1149,9 @@
       <c r="AC7" t="n">
         <v>55.04</v>
       </c>
+      <c r="AD7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1220,6 +1243,9 @@
       <c r="AC8" t="n">
         <v>56.89</v>
       </c>
+      <c r="AD8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1311,6 +1337,9 @@
       <c r="AC9" t="n">
         <v>65.3</v>
       </c>
+      <c r="AD9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1402,6 +1431,9 @@
       <c r="AC10" t="n">
         <v>55.69</v>
       </c>
+      <c r="AD10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1493,6 +1525,9 @@
       <c r="AC11" t="n">
         <v>61.86</v>
       </c>
+      <c r="AD11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1584,6 +1619,9 @@
       <c r="AC12" t="n">
         <v>46.47</v>
       </c>
+      <c r="AD12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1675,6 +1713,9 @@
       <c r="AC13" t="n">
         <v>62.83</v>
       </c>
+      <c r="AD13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1766,6 +1807,9 @@
       <c r="AC14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="AD14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1857,6 +1901,9 @@
       <c r="AC15" t="n">
         <v>52.95</v>
       </c>
+      <c r="AD15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1948,6 +1995,9 @@
       <c r="AC16" t="n">
         <v>45.46</v>
       </c>
+      <c r="AD16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2039,6 +2089,9 @@
       <c r="AC17" t="n">
         <v>37.94</v>
       </c>
+      <c r="AD17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2130,6 +2183,9 @@
       <c r="AC18" t="n">
         <v>48.26</v>
       </c>
+      <c r="AD18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2221,6 +2277,9 @@
       <c r="AC19" t="n">
         <v>33.06</v>
       </c>
+      <c r="AD19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2312,6 +2371,9 @@
       <c r="AC20" t="n">
         <v>36.05</v>
       </c>
+      <c r="AD20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2403,6 +2465,9 @@
       <c r="AC21" t="n">
         <v>54.84</v>
       </c>
+      <c r="AD21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2494,6 +2559,9 @@
       <c r="AC22" t="n">
         <v>60.85</v>
       </c>
+      <c r="AD22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2585,6 +2653,9 @@
       <c r="AC23" t="n">
         <v>60.9</v>
       </c>
+      <c r="AD23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2676,6 +2747,9 @@
       <c r="AC24" t="n">
         <v>59.43</v>
       </c>
+      <c r="AD24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2767,6 +2841,9 @@
       <c r="AC25" t="n">
         <v>36.73</v>
       </c>
+      <c r="AD25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2858,6 +2935,9 @@
       <c r="AC26" t="n">
         <v>45.78</v>
       </c>
+      <c r="AD26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2949,6 +3029,9 @@
       <c r="AC27" t="n">
         <v>52.06</v>
       </c>
+      <c r="AD27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3040,6 +3123,9 @@
       <c r="AC28" t="n">
         <v>46.01</v>
       </c>
+      <c r="AD28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3131,6 +3217,9 @@
       <c r="AC29" t="n">
         <v>34.12</v>
       </c>
+      <c r="AD29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3222,6 +3311,9 @@
       <c r="AC30" t="n">
         <v>62.59</v>
       </c>
+      <c r="AD30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3313,6 +3405,9 @@
       <c r="AC31" t="n">
         <v>31.42</v>
       </c>
+      <c r="AD31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3404,6 +3499,9 @@
       <c r="AC32" t="n">
         <v>46.53</v>
       </c>
+      <c r="AD32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3495,6 +3593,9 @@
       <c r="AC33" t="n">
         <v>42.41</v>
       </c>
+      <c r="AD33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3584,6 +3685,9 @@
         <v>45.98</v>
       </c>
       <c r="AC34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="AD34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,6 +588,11 @@
           <t>2026-01-06</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -682,6 +687,9 @@
       <c r="AD2" t="n">
         <v>39.66</v>
       </c>
+      <c r="AE2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -776,6 +784,9 @@
       <c r="AD3" t="n">
         <v>63.46</v>
       </c>
+      <c r="AE3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -870,6 +881,9 @@
       <c r="AD4" t="n">
         <v>38.5</v>
       </c>
+      <c r="AE4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -964,6 +978,9 @@
       <c r="AD5" t="n">
         <v>53.66</v>
       </c>
+      <c r="AE5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1058,6 +1075,9 @@
       <c r="AD6" t="n">
         <v>48.01</v>
       </c>
+      <c r="AE6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1152,6 +1172,9 @@
       <c r="AD7" t="n">
         <v>55.04</v>
       </c>
+      <c r="AE7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1246,6 +1269,9 @@
       <c r="AD8" t="n">
         <v>56.89</v>
       </c>
+      <c r="AE8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1340,6 +1366,9 @@
       <c r="AD9" t="n">
         <v>65.3</v>
       </c>
+      <c r="AE9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1434,6 +1463,9 @@
       <c r="AD10" t="n">
         <v>55.69</v>
       </c>
+      <c r="AE10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1528,6 +1560,9 @@
       <c r="AD11" t="n">
         <v>61.86</v>
       </c>
+      <c r="AE11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1622,6 +1657,9 @@
       <c r="AD12" t="n">
         <v>46.47</v>
       </c>
+      <c r="AE12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1716,6 +1754,9 @@
       <c r="AD13" t="n">
         <v>62.83</v>
       </c>
+      <c r="AE13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1810,6 +1851,9 @@
       <c r="AD14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="AE14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1904,6 +1948,9 @@
       <c r="AD15" t="n">
         <v>52.95</v>
       </c>
+      <c r="AE15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1998,6 +2045,9 @@
       <c r="AD16" t="n">
         <v>45.46</v>
       </c>
+      <c r="AE16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2092,6 +2142,9 @@
       <c r="AD17" t="n">
         <v>37.94</v>
       </c>
+      <c r="AE17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2186,6 +2239,9 @@
       <c r="AD18" t="n">
         <v>48.26</v>
       </c>
+      <c r="AE18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2280,6 +2336,9 @@
       <c r="AD19" t="n">
         <v>33.06</v>
       </c>
+      <c r="AE19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2374,6 +2433,9 @@
       <c r="AD20" t="n">
         <v>36.05</v>
       </c>
+      <c r="AE20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2468,6 +2530,9 @@
       <c r="AD21" t="n">
         <v>54.84</v>
       </c>
+      <c r="AE21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2562,6 +2627,9 @@
       <c r="AD22" t="n">
         <v>60.85</v>
       </c>
+      <c r="AE22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2656,6 +2724,9 @@
       <c r="AD23" t="n">
         <v>60.9</v>
       </c>
+      <c r="AE23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2750,6 +2821,9 @@
       <c r="AD24" t="n">
         <v>59.43</v>
       </c>
+      <c r="AE24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2844,6 +2918,9 @@
       <c r="AD25" t="n">
         <v>36.73</v>
       </c>
+      <c r="AE25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2938,6 +3015,9 @@
       <c r="AD26" t="n">
         <v>45.78</v>
       </c>
+      <c r="AE26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3032,6 +3112,9 @@
       <c r="AD27" t="n">
         <v>52.06</v>
       </c>
+      <c r="AE27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3126,6 +3209,9 @@
       <c r="AD28" t="n">
         <v>46.01</v>
       </c>
+      <c r="AE28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3220,6 +3306,9 @@
       <c r="AD29" t="n">
         <v>34.12</v>
       </c>
+      <c r="AE29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3314,6 +3403,9 @@
       <c r="AD30" t="n">
         <v>62.59</v>
       </c>
+      <c r="AE30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3408,6 +3500,9 @@
       <c r="AD31" t="n">
         <v>31.42</v>
       </c>
+      <c r="AE31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3502,6 +3597,9 @@
       <c r="AD32" t="n">
         <v>46.53</v>
       </c>
+      <c r="AE32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3596,6 +3694,9 @@
       <c r="AD33" t="n">
         <v>42.41</v>
       </c>
+      <c r="AE33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3688,6 +3789,9 @@
         <v>45.98</v>
       </c>
       <c r="AD34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="AE34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE34"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,11 @@
           <t>2026-01-13</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -690,6 +695,9 @@
       <c r="AE2" t="n">
         <v>39.66</v>
       </c>
+      <c r="AF2" t="n">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -787,6 +795,9 @@
       <c r="AE3" t="n">
         <v>63.46</v>
       </c>
+      <c r="AF3" t="n">
+        <v>63.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -884,6 +895,9 @@
       <c r="AE4" t="n">
         <v>38.5</v>
       </c>
+      <c r="AF4" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -981,6 +995,9 @@
       <c r="AE5" t="n">
         <v>53.66</v>
       </c>
+      <c r="AF5" t="n">
+        <v>53.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1078,6 +1095,9 @@
       <c r="AE6" t="n">
         <v>48.01</v>
       </c>
+      <c r="AF6" t="n">
+        <v>48.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1175,6 +1195,9 @@
       <c r="AE7" t="n">
         <v>55.04</v>
       </c>
+      <c r="AF7" t="n">
+        <v>55.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1272,6 +1295,9 @@
       <c r="AE8" t="n">
         <v>56.89</v>
       </c>
+      <c r="AF8" t="n">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1369,6 +1395,9 @@
       <c r="AE9" t="n">
         <v>65.3</v>
       </c>
+      <c r="AF9" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1466,6 +1495,9 @@
       <c r="AE10" t="n">
         <v>55.69</v>
       </c>
+      <c r="AF10" t="n">
+        <v>55.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1563,6 +1595,9 @@
       <c r="AE11" t="n">
         <v>61.86</v>
       </c>
+      <c r="AF11" t="n">
+        <v>61.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1660,6 +1695,9 @@
       <c r="AE12" t="n">
         <v>46.47</v>
       </c>
+      <c r="AF12" t="n">
+        <v>46.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1757,6 +1795,9 @@
       <c r="AE13" t="n">
         <v>62.83</v>
       </c>
+      <c r="AF13" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1854,6 +1895,9 @@
       <c r="AE14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="AF14" t="n">
+        <v>69.26000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1951,6 +1995,9 @@
       <c r="AE15" t="n">
         <v>52.95</v>
       </c>
+      <c r="AF15" t="n">
+        <v>52.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2048,6 +2095,9 @@
       <c r="AE16" t="n">
         <v>45.46</v>
       </c>
+      <c r="AF16" t="n">
+        <v>45.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2145,6 +2195,9 @@
       <c r="AE17" t="n">
         <v>37.94</v>
       </c>
+      <c r="AF17" t="n">
+        <v>37.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2242,6 +2295,9 @@
       <c r="AE18" t="n">
         <v>48.26</v>
       </c>
+      <c r="AF18" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2339,6 +2395,9 @@
       <c r="AE19" t="n">
         <v>33.06</v>
       </c>
+      <c r="AF19" t="n">
+        <v>33.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2436,6 +2495,9 @@
       <c r="AE20" t="n">
         <v>36.05</v>
       </c>
+      <c r="AF20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2533,6 +2595,9 @@
       <c r="AE21" t="n">
         <v>54.84</v>
       </c>
+      <c r="AF21" t="n">
+        <v>54.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2630,6 +2695,9 @@
       <c r="AE22" t="n">
         <v>60.85</v>
       </c>
+      <c r="AF22" t="n">
+        <v>60.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2727,6 +2795,9 @@
       <c r="AE23" t="n">
         <v>60.9</v>
       </c>
+      <c r="AF23" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2824,6 +2895,9 @@
       <c r="AE24" t="n">
         <v>59.43</v>
       </c>
+      <c r="AF24" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2921,6 +2995,9 @@
       <c r="AE25" t="n">
         <v>36.73</v>
       </c>
+      <c r="AF25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3018,6 +3095,9 @@
       <c r="AE26" t="n">
         <v>45.78</v>
       </c>
+      <c r="AF26" t="n">
+        <v>45.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3115,6 +3195,9 @@
       <c r="AE27" t="n">
         <v>52.06</v>
       </c>
+      <c r="AF27" t="n">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3212,6 +3295,9 @@
       <c r="AE28" t="n">
         <v>46.01</v>
       </c>
+      <c r="AF28" t="n">
+        <v>46.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3309,6 +3395,9 @@
       <c r="AE29" t="n">
         <v>34.12</v>
       </c>
+      <c r="AF29" t="n">
+        <v>34.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3406,6 +3495,9 @@
       <c r="AE30" t="n">
         <v>62.59</v>
       </c>
+      <c r="AF30" t="n">
+        <v>62.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3503,6 +3595,9 @@
       <c r="AE31" t="n">
         <v>31.42</v>
       </c>
+      <c r="AF31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3600,6 +3695,9 @@
       <c r="AE32" t="n">
         <v>46.53</v>
       </c>
+      <c r="AF32" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3697,6 +3795,9 @@
       <c r="AE33" t="n">
         <v>42.41</v>
       </c>
+      <c r="AF33" t="n">
+        <v>42.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3792,6 +3893,9 @@
         <v>45.98</v>
       </c>
       <c r="AE34" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="AF34" t="n">
         <v>45.98</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF34"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,6 +598,11 @@
           <t>2026-01-20</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -698,6 +703,9 @@
       <c r="AF2" t="n">
         <v>39.66</v>
       </c>
+      <c r="AG2" t="n">
+        <v>38.31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -798,6 +806,9 @@
       <c r="AF3" t="n">
         <v>63.46</v>
       </c>
+      <c r="AG3" t="n">
+        <v>64.62</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -898,6 +909,9 @@
       <c r="AF4" t="n">
         <v>38.5</v>
       </c>
+      <c r="AG4" t="n">
+        <v>39.85</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -998,6 +1012,9 @@
       <c r="AF5" t="n">
         <v>53.66</v>
       </c>
+      <c r="AG5" t="n">
+        <v>53.03</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1098,6 +1115,9 @@
       <c r="AF6" t="n">
         <v>48.01</v>
       </c>
+      <c r="AG6" t="n">
+        <v>47.82</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1198,6 +1218,9 @@
       <c r="AF7" t="n">
         <v>55.04</v>
       </c>
+      <c r="AG7" t="n">
+        <v>55.67</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1298,6 +1321,9 @@
       <c r="AF8" t="n">
         <v>56.89</v>
       </c>
+      <c r="AG8" t="n">
+        <v>56.32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1398,6 +1424,9 @@
       <c r="AF9" t="n">
         <v>65.3</v>
       </c>
+      <c r="AG9" t="n">
+        <v>66.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1498,6 +1527,9 @@
       <c r="AF10" t="n">
         <v>55.69</v>
       </c>
+      <c r="AG10" t="n">
+        <v>55.88</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1598,6 +1630,9 @@
       <c r="AF11" t="n">
         <v>61.86</v>
       </c>
+      <c r="AG11" t="n">
+        <v>61.02</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1698,6 +1733,9 @@
       <c r="AF12" t="n">
         <v>46.47</v>
       </c>
+      <c r="AG12" t="n">
+        <v>44.87</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1798,6 +1836,9 @@
       <c r="AF13" t="n">
         <v>62.83</v>
       </c>
+      <c r="AG13" t="n">
+        <v>61.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1898,6 +1939,9 @@
       <c r="AF14" t="n">
         <v>69.26000000000001</v>
       </c>
+      <c r="AG14" t="n">
+        <v>69.28</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1998,6 +2042,9 @@
       <c r="AF15" t="n">
         <v>52.95</v>
       </c>
+      <c r="AG15" t="n">
+        <v>53.82</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2098,6 +2145,9 @@
       <c r="AF16" t="n">
         <v>45.46</v>
       </c>
+      <c r="AG16" t="n">
+        <v>45.55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2198,6 +2248,9 @@
       <c r="AF17" t="n">
         <v>37.94</v>
       </c>
+      <c r="AG17" t="n">
+        <v>37.76</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2298,6 +2351,9 @@
       <c r="AF18" t="n">
         <v>48.26</v>
       </c>
+      <c r="AG18" t="n">
+        <v>48.17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2398,6 +2454,9 @@
       <c r="AF19" t="n">
         <v>33.06</v>
       </c>
+      <c r="AG19" t="n">
+        <v>32.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2498,6 +2557,9 @@
       <c r="AF20" t="n">
         <v>36.05</v>
       </c>
+      <c r="AG20" t="n">
+        <v>36.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2598,6 +2660,9 @@
       <c r="AF21" t="n">
         <v>54.84</v>
       </c>
+      <c r="AG21" t="n">
+        <v>55.17</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2698,6 +2763,9 @@
       <c r="AF22" t="n">
         <v>60.85</v>
       </c>
+      <c r="AG22" t="n">
+        <v>62.28</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2798,6 +2866,9 @@
       <c r="AF23" t="n">
         <v>60.9</v>
       </c>
+      <c r="AG23" t="n">
+        <v>61.47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2898,6 +2969,9 @@
       <c r="AF24" t="n">
         <v>59.43</v>
       </c>
+      <c r="AG24" t="n">
+        <v>58.27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2998,6 +3072,9 @@
       <c r="AF25" t="n">
         <v>36.73</v>
       </c>
+      <c r="AG25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3098,6 +3175,9 @@
       <c r="AF26" t="n">
         <v>45.78</v>
       </c>
+      <c r="AG26" t="n">
+        <v>45.45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3198,6 +3278,9 @@
       <c r="AF27" t="n">
         <v>52.06</v>
       </c>
+      <c r="AG27" t="n">
+        <v>52.04</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3298,6 +3381,9 @@
       <c r="AF28" t="n">
         <v>46.01</v>
       </c>
+      <c r="AG28" t="n">
+        <v>45.29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3398,6 +3484,9 @@
       <c r="AF29" t="n">
         <v>34.12</v>
       </c>
+      <c r="AG29" t="n">
+        <v>34.23</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3498,6 +3587,9 @@
       <c r="AF30" t="n">
         <v>62.59</v>
       </c>
+      <c r="AG30" t="n">
+        <v>61.72</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3598,6 +3690,9 @@
       <c r="AF31" t="n">
         <v>31.42</v>
       </c>
+      <c r="AG31" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3698,6 +3793,9 @@
       <c r="AF32" t="n">
         <v>46.53</v>
       </c>
+      <c r="AG32" t="n">
+        <v>47.25</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3798,6 +3896,9 @@
       <c r="AF33" t="n">
         <v>42.41</v>
       </c>
+      <c r="AG33" t="n">
+        <v>44.01</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3897,6 +3998,9 @@
       </c>
       <c r="AF34" t="n">
         <v>45.98</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>46.16</v>
       </c>
     </row>
   </sheetData>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,6 +603,11 @@
           <t>2026-01-27</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -706,6 +711,9 @@
       <c r="AG2" t="n">
         <v>38.31</v>
       </c>
+      <c r="AH2" t="n">
+        <v>37.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -809,6 +817,9 @@
       <c r="AG3" t="n">
         <v>64.62</v>
       </c>
+      <c r="AH3" t="n">
+        <v>63.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -912,6 +923,9 @@
       <c r="AG4" t="n">
         <v>39.85</v>
       </c>
+      <c r="AH4" t="n">
+        <v>41.31</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1015,6 +1029,9 @@
       <c r="AG5" t="n">
         <v>53.03</v>
       </c>
+      <c r="AH5" t="n">
+        <v>52.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1118,6 +1135,9 @@
       <c r="AG6" t="n">
         <v>47.82</v>
       </c>
+      <c r="AH6" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1221,6 +1241,9 @@
       <c r="AG7" t="n">
         <v>55.67</v>
       </c>
+      <c r="AH7" t="n">
+        <v>56.84</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1324,6 +1347,9 @@
       <c r="AG8" t="n">
         <v>56.32</v>
       </c>
+      <c r="AH8" t="n">
+        <v>57.69</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1427,6 +1453,9 @@
       <c r="AG9" t="n">
         <v>66.14</v>
       </c>
+      <c r="AH9" t="n">
+        <v>67.27</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1530,6 +1559,9 @@
       <c r="AG10" t="n">
         <v>55.88</v>
       </c>
+      <c r="AH10" t="n">
+        <v>56.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1633,6 +1665,9 @@
       <c r="AG11" t="n">
         <v>61.02</v>
       </c>
+      <c r="AH11" t="n">
+        <v>60.38</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1736,6 +1771,9 @@
       <c r="AG12" t="n">
         <v>44.87</v>
       </c>
+      <c r="AH12" t="n">
+        <v>44.14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1839,6 +1877,9 @@
       <c r="AG13" t="n">
         <v>61.4</v>
       </c>
+      <c r="AH13" t="n">
+        <v>62.94</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1942,6 +1983,9 @@
       <c r="AG14" t="n">
         <v>69.28</v>
       </c>
+      <c r="AH14" t="n">
+        <v>68.15000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2045,6 +2089,9 @@
       <c r="AG15" t="n">
         <v>53.82</v>
       </c>
+      <c r="AH15" t="n">
+        <v>54.07</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2148,6 +2195,9 @@
       <c r="AG16" t="n">
         <v>45.55</v>
       </c>
+      <c r="AH16" t="n">
+        <v>44.13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2251,6 +2301,9 @@
       <c r="AG17" t="n">
         <v>37.76</v>
       </c>
+      <c r="AH17" t="n">
+        <v>38.02</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2354,6 +2407,9 @@
       <c r="AG18" t="n">
         <v>48.17</v>
       </c>
+      <c r="AH18" t="n">
+        <v>47.75</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2457,6 +2513,9 @@
       <c r="AG19" t="n">
         <v>32.95</v>
       </c>
+      <c r="AH19" t="n">
+        <v>34.48</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2560,6 +2619,9 @@
       <c r="AG20" t="n">
         <v>36.05</v>
       </c>
+      <c r="AH20" t="n">
+        <v>34.52</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2663,6 +2725,9 @@
       <c r="AG21" t="n">
         <v>55.17</v>
       </c>
+      <c r="AH21" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2766,6 +2831,9 @@
       <c r="AG22" t="n">
         <v>62.28</v>
       </c>
+      <c r="AH22" t="n">
+        <v>62.92</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2869,6 +2937,9 @@
       <c r="AG23" t="n">
         <v>61.47</v>
       </c>
+      <c r="AH23" t="n">
+        <v>61.84</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2972,6 +3043,9 @@
       <c r="AG24" t="n">
         <v>58.27</v>
       </c>
+      <c r="AH24" t="n">
+        <v>56.82</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3075,6 +3149,9 @@
       <c r="AG25" t="n">
         <v>36.73</v>
       </c>
+      <c r="AH25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3178,6 +3255,9 @@
       <c r="AG26" t="n">
         <v>45.45</v>
       </c>
+      <c r="AH26" t="n">
+        <v>45.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3281,6 +3361,9 @@
       <c r="AG27" t="n">
         <v>52.04</v>
       </c>
+      <c r="AH27" t="n">
+        <v>53.49</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3384,6 +3467,9 @@
       <c r="AG28" t="n">
         <v>45.29</v>
       </c>
+      <c r="AH28" t="n">
+        <v>46.02</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3487,6 +3573,9 @@
       <c r="AG29" t="n">
         <v>34.23</v>
       </c>
+      <c r="AH29" t="n">
+        <v>35.46</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3590,6 +3679,9 @@
       <c r="AG30" t="n">
         <v>61.72</v>
       </c>
+      <c r="AH30" t="n">
+        <v>60.35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3693,6 +3785,9 @@
       <c r="AG31" t="n">
         <v>31.42</v>
       </c>
+      <c r="AH31" t="n">
+        <v>31.16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3796,6 +3891,9 @@
       <c r="AG32" t="n">
         <v>47.25</v>
       </c>
+      <c r="AH32" t="n">
+        <v>48.54</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3899,6 +3997,9 @@
       <c r="AG33" t="n">
         <v>44.01</v>
       </c>
+      <c r="AH33" t="n">
+        <v>45.43</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4001,6 +4102,9 @@
       </c>
       <c r="AG34" t="n">
         <v>46.16</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>44.7</v>
       </c>
     </row>
   </sheetData>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,6 +608,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -714,6 +719,9 @@
       <c r="AH2" t="n">
         <v>37.08</v>
       </c>
+      <c r="AI2" t="n">
+        <v>37.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -820,6 +828,9 @@
       <c r="AH3" t="n">
         <v>63.08</v>
       </c>
+      <c r="AI3" t="n">
+        <v>63.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -926,6 +937,9 @@
       <c r="AH4" t="n">
         <v>41.31</v>
       </c>
+      <c r="AI4" t="n">
+        <v>41.31</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1032,6 +1046,9 @@
       <c r="AH5" t="n">
         <v>52.66</v>
       </c>
+      <c r="AI5" t="n">
+        <v>52.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1138,6 +1155,9 @@
       <c r="AH6" t="n">
         <v>46.53</v>
       </c>
+      <c r="AI6" t="n">
+        <v>46.53</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1244,6 +1264,9 @@
       <c r="AH7" t="n">
         <v>56.84</v>
       </c>
+      <c r="AI7" t="n">
+        <v>56.84</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1350,6 +1373,9 @@
       <c r="AH8" t="n">
         <v>57.69</v>
       </c>
+      <c r="AI8" t="n">
+        <v>57.69</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1456,6 +1482,9 @@
       <c r="AH9" t="n">
         <v>67.27</v>
       </c>
+      <c r="AI9" t="n">
+        <v>67.27</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1562,6 +1591,9 @@
       <c r="AH10" t="n">
         <v>56.3</v>
       </c>
+      <c r="AI10" t="n">
+        <v>56.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1668,6 +1700,9 @@
       <c r="AH11" t="n">
         <v>60.38</v>
       </c>
+      <c r="AI11" t="n">
+        <v>60.38</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1774,6 +1809,9 @@
       <c r="AH12" t="n">
         <v>44.14</v>
       </c>
+      <c r="AI12" t="n">
+        <v>44.14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1880,6 +1918,9 @@
       <c r="AH13" t="n">
         <v>62.94</v>
       </c>
+      <c r="AI13" t="n">
+        <v>62.94</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1986,6 +2027,9 @@
       <c r="AH14" t="n">
         <v>68.15000000000001</v>
       </c>
+      <c r="AI14" t="n">
+        <v>68.15000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2092,6 +2136,9 @@
       <c r="AH15" t="n">
         <v>54.07</v>
       </c>
+      <c r="AI15" t="n">
+        <v>54.07</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2198,6 +2245,9 @@
       <c r="AH16" t="n">
         <v>44.13</v>
       </c>
+      <c r="AI16" t="n">
+        <v>44.13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2304,6 +2354,9 @@
       <c r="AH17" t="n">
         <v>38.02</v>
       </c>
+      <c r="AI17" t="n">
+        <v>38.02</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2410,6 +2463,9 @@
       <c r="AH18" t="n">
         <v>47.75</v>
       </c>
+      <c r="AI18" t="n">
+        <v>47.75</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2516,6 +2572,9 @@
       <c r="AH19" t="n">
         <v>34.48</v>
       </c>
+      <c r="AI19" t="n">
+        <v>34.48</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2622,6 +2681,9 @@
       <c r="AH20" t="n">
         <v>34.52</v>
       </c>
+      <c r="AI20" t="n">
+        <v>35.36</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2728,6 +2790,9 @@
       <c r="AH21" t="n">
         <v>54</v>
       </c>
+      <c r="AI21" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2834,6 +2899,9 @@
       <c r="AH22" t="n">
         <v>62.92</v>
       </c>
+      <c r="AI22" t="n">
+        <v>62.92</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2940,6 +3008,9 @@
       <c r="AH23" t="n">
         <v>61.84</v>
       </c>
+      <c r="AI23" t="n">
+        <v>61.84</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3046,6 +3117,9 @@
       <c r="AH24" t="n">
         <v>56.82</v>
       </c>
+      <c r="AI24" t="n">
+        <v>56.82</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3152,6 +3226,9 @@
       <c r="AH25" t="n">
         <v>36.73</v>
       </c>
+      <c r="AI25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3258,6 +3335,9 @@
       <c r="AH26" t="n">
         <v>45.2</v>
       </c>
+      <c r="AI26" t="n">
+        <v>45.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3364,6 +3444,9 @@
       <c r="AH27" t="n">
         <v>53.49</v>
       </c>
+      <c r="AI27" t="n">
+        <v>53.49</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3470,6 +3553,9 @@
       <c r="AH28" t="n">
         <v>46.02</v>
       </c>
+      <c r="AI28" t="n">
+        <v>46.02</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3576,6 +3662,9 @@
       <c r="AH29" t="n">
         <v>35.46</v>
       </c>
+      <c r="AI29" t="n">
+        <v>35.46</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3682,6 +3771,9 @@
       <c r="AH30" t="n">
         <v>60.35</v>
       </c>
+      <c r="AI30" t="n">
+        <v>60.35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3788,6 +3880,9 @@
       <c r="AH31" t="n">
         <v>31.16</v>
       </c>
+      <c r="AI31" t="n">
+        <v>30.32</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3894,6 +3989,9 @@
       <c r="AH32" t="n">
         <v>48.54</v>
       </c>
+      <c r="AI32" t="n">
+        <v>48.54</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4000,6 +4098,9 @@
       <c r="AH33" t="n">
         <v>45.43</v>
       </c>
+      <c r="AI33" t="n">
+        <v>45.43</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4104,6 +4205,9 @@
         <v>46.16</v>
       </c>
       <c r="AH34" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="AI34" t="n">
         <v>44.7</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +613,11 @@
           <t>2026-02-10</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -722,6 +727,9 @@
       <c r="AI2" t="n">
         <v>37.08</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>34.97</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -831,6 +839,9 @@
       <c r="AI3" t="n">
         <v>63.08</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>61.38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -940,6 +951,9 @@
       <c r="AI4" t="n">
         <v>41.31</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>41.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1049,6 +1063,9 @@
       <c r="AI5" t="n">
         <v>52.66</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>52.37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1158,6 +1175,9 @@
       <c r="AI6" t="n">
         <v>46.53</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>47.49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1267,6 +1287,9 @@
       <c r="AI7" t="n">
         <v>56.84</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>57.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1376,6 +1399,9 @@
       <c r="AI8" t="n">
         <v>57.69</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>58.51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1485,6 +1511,9 @@
       <c r="AI9" t="n">
         <v>67.27</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>67.65000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1594,6 +1623,9 @@
       <c r="AI10" t="n">
         <v>56.3</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>56.49</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1703,6 +1735,9 @@
       <c r="AI11" t="n">
         <v>60.38</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>60.82</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1812,6 +1847,9 @@
       <c r="AI12" t="n">
         <v>44.14</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>43.18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1921,6 +1959,9 @@
       <c r="AI13" t="n">
         <v>62.94</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>63.62</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2030,6 +2071,9 @@
       <c r="AI14" t="n">
         <v>68.15000000000001</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>67.47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2139,6 +2183,9 @@
       <c r="AI15" t="n">
         <v>54.07</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>53.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2248,6 +2295,9 @@
       <c r="AI16" t="n">
         <v>44.13</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>45.12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2357,6 +2407,9 @@
       <c r="AI17" t="n">
         <v>38.02</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>38.84</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2466,6 +2519,9 @@
       <c r="AI18" t="n">
         <v>47.75</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>48.29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2575,6 +2631,9 @@
       <c r="AI19" t="n">
         <v>34.48</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>33.66</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2684,6 +2743,9 @@
       <c r="AI20" t="n">
         <v>35.36</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>37.47</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2793,6 +2855,9 @@
       <c r="AI21" t="n">
         <v>54</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>53.72</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2902,6 +2967,9 @@
       <c r="AI22" t="n">
         <v>62.92</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>62.54</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3011,6 +3079,9 @@
       <c r="AI23" t="n">
         <v>61.84</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>62.12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3120,6 +3191,9 @@
       <c r="AI24" t="n">
         <v>56.82</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>56.38</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3229,6 +3303,9 @@
       <c r="AI25" t="n">
         <v>36.73</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3338,6 +3415,9 @@
       <c r="AI26" t="n">
         <v>45.2</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3447,6 +3527,9 @@
       <c r="AI27" t="n">
         <v>53.49</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>55.19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3556,6 +3639,9 @@
       <c r="AI28" t="n">
         <v>46.02</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>45.03</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3665,6 +3751,9 @@
       <c r="AI29" t="n">
         <v>35.46</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>34.88</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3774,6 +3863,9 @@
       <c r="AI30" t="n">
         <v>60.35</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>60.64</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3883,6 +3975,9 @@
       <c r="AI31" t="n">
         <v>30.32</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>30.21</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3992,6 +4087,9 @@
       <c r="AI32" t="n">
         <v>48.54</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>48.35</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4101,6 +4199,9 @@
       <c r="AI33" t="n">
         <v>45.43</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>44.89</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4209,6 +4310,9 @@
       </c>
       <c r="AI34" t="n">
         <v>44.7</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>44.81</v>
       </c>
     </row>
   </sheetData>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,6 +618,11 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -730,6 +735,9 @@
       <c r="AJ2" t="n">
         <v>34.97</v>
       </c>
+      <c r="AK2" t="n">
+        <v>34.97</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -842,6 +850,9 @@
       <c r="AJ3" t="n">
         <v>61.38</v>
       </c>
+      <c r="AK3" t="n">
+        <v>61.38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -954,6 +965,9 @@
       <c r="AJ4" t="n">
         <v>41.89</v>
       </c>
+      <c r="AK4" t="n">
+        <v>41.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1066,6 +1080,9 @@
       <c r="AJ5" t="n">
         <v>52.37</v>
       </c>
+      <c r="AK5" t="n">
+        <v>52.37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1178,6 +1195,9 @@
       <c r="AJ6" t="n">
         <v>47.49</v>
       </c>
+      <c r="AK6" t="n">
+        <v>47.49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1290,6 +1310,9 @@
       <c r="AJ7" t="n">
         <v>57.04</v>
       </c>
+      <c r="AK7" t="n">
+        <v>57.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1402,6 +1425,9 @@
       <c r="AJ8" t="n">
         <v>58.51</v>
       </c>
+      <c r="AK8" t="n">
+        <v>58.51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1514,6 +1540,9 @@
       <c r="AJ9" t="n">
         <v>67.65000000000001</v>
       </c>
+      <c r="AK9" t="n">
+        <v>67.65000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1626,6 +1655,9 @@
       <c r="AJ10" t="n">
         <v>56.49</v>
       </c>
+      <c r="AK10" t="n">
+        <v>56.49</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1738,6 +1770,9 @@
       <c r="AJ11" t="n">
         <v>60.82</v>
       </c>
+      <c r="AK11" t="n">
+        <v>60.82</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1850,6 +1885,9 @@
       <c r="AJ12" t="n">
         <v>43.18</v>
       </c>
+      <c r="AK12" t="n">
+        <v>43.18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1962,6 +2000,9 @@
       <c r="AJ13" t="n">
         <v>63.62</v>
       </c>
+      <c r="AK13" t="n">
+        <v>63.62</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2074,6 +2115,9 @@
       <c r="AJ14" t="n">
         <v>67.47</v>
       </c>
+      <c r="AK14" t="n">
+        <v>67.47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2186,6 +2230,9 @@
       <c r="AJ15" t="n">
         <v>53.25</v>
       </c>
+      <c r="AK15" t="n">
+        <v>53.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2298,6 +2345,9 @@
       <c r="AJ16" t="n">
         <v>45.12</v>
       </c>
+      <c r="AK16" t="n">
+        <v>45.12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2410,6 +2460,9 @@
       <c r="AJ17" t="n">
         <v>38.84</v>
       </c>
+      <c r="AK17" t="n">
+        <v>38.84</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2522,6 +2575,9 @@
       <c r="AJ18" t="n">
         <v>48.29</v>
       </c>
+      <c r="AK18" t="n">
+        <v>48.29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2634,6 +2690,9 @@
       <c r="AJ19" t="n">
         <v>33.66</v>
       </c>
+      <c r="AK19" t="n">
+        <v>33.66</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2746,6 +2805,9 @@
       <c r="AJ20" t="n">
         <v>37.47</v>
       </c>
+      <c r="AK20" t="n">
+        <v>37.47</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2858,6 +2920,9 @@
       <c r="AJ21" t="n">
         <v>53.72</v>
       </c>
+      <c r="AK21" t="n">
+        <v>53.72</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2970,6 +3035,9 @@
       <c r="AJ22" t="n">
         <v>62.54</v>
       </c>
+      <c r="AK22" t="n">
+        <v>62.54</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3082,6 +3150,9 @@
       <c r="AJ23" t="n">
         <v>62.12</v>
       </c>
+      <c r="AK23" t="n">
+        <v>62.12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3194,6 +3265,9 @@
       <c r="AJ24" t="n">
         <v>56.38</v>
       </c>
+      <c r="AK24" t="n">
+        <v>56.38</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3306,6 +3380,9 @@
       <c r="AJ25" t="n">
         <v>36.73</v>
       </c>
+      <c r="AK25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3418,6 +3495,9 @@
       <c r="AJ26" t="n">
         <v>45</v>
       </c>
+      <c r="AK26" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3530,6 +3610,9 @@
       <c r="AJ27" t="n">
         <v>55.19</v>
       </c>
+      <c r="AK27" t="n">
+        <v>55.19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3642,6 +3725,9 @@
       <c r="AJ28" t="n">
         <v>45.03</v>
       </c>
+      <c r="AK28" t="n">
+        <v>45.03</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3754,6 +3840,9 @@
       <c r="AJ29" t="n">
         <v>34.88</v>
       </c>
+      <c r="AK29" t="n">
+        <v>34.88</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3866,6 +3955,9 @@
       <c r="AJ30" t="n">
         <v>60.64</v>
       </c>
+      <c r="AK30" t="n">
+        <v>60.64</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3978,6 +4070,9 @@
       <c r="AJ31" t="n">
         <v>30.21</v>
       </c>
+      <c r="AK31" t="n">
+        <v>30.21</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4090,6 +4185,9 @@
       <c r="AJ32" t="n">
         <v>48.35</v>
       </c>
+      <c r="AK32" t="n">
+        <v>48.35</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4202,6 +4300,9 @@
       <c r="AJ33" t="n">
         <v>44.89</v>
       </c>
+      <c r="AK33" t="n">
+        <v>44.89</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4312,6 +4413,9 @@
         <v>44.7</v>
       </c>
       <c r="AJ34" t="n">
+        <v>44.81</v>
+      </c>
+      <c r="AK34" t="n">
         <v>44.81</v>
       </c>
     </row>

--- a/gaa_rankings_pivot.xlsx
+++ b/gaa_rankings_pivot.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,6 +623,11 @@
           <t>2026-02-17</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -738,6 +743,9 @@
       <c r="AK2" t="n">
         <v>34.97</v>
       </c>
+      <c r="AL2" t="n">
+        <v>36.56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -853,6 +861,9 @@
       <c r="AK3" t="n">
         <v>61.38</v>
       </c>
+      <c r="AL3" t="n">
+        <v>60.84</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -968,6 +979,9 @@
       <c r="AK4" t="n">
         <v>41.89</v>
       </c>
+      <c r="AL4" t="n">
+        <v>42.01</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1083,6 +1097,9 @@
       <c r="AK5" t="n">
         <v>52.37</v>
       </c>
+      <c r="AL5" t="n">
+        <v>53.24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1198,6 +1215,9 @@
       <c r="AK6" t="n">
         <v>47.49</v>
       </c>
+      <c r="AL6" t="n">
+        <v>48.03</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1313,6 +1333,9 @@
       <c r="AK7" t="n">
         <v>57.04</v>
       </c>
+      <c r="AL7" t="n">
+        <v>58.38</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1428,6 +1451,9 @@
       <c r="AK8" t="n">
         <v>58.51</v>
       </c>
+      <c r="AL8" t="n">
+        <v>58.59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1543,6 +1569,9 @@
       <c r="AK9" t="n">
         <v>67.65000000000001</v>
       </c>
+      <c r="AL9" t="n">
+        <v>68.19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1658,6 +1687,9 @@
       <c r="AK10" t="n">
         <v>56.49</v>
       </c>
+      <c r="AL10" t="n">
+        <v>56.79</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1773,6 +1805,9 @@
       <c r="AK11" t="n">
         <v>60.82</v>
       </c>
+      <c r="AL11" t="n">
+        <v>60.31</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1888,6 +1923,9 @@
       <c r="AK12" t="n">
         <v>43.18</v>
       </c>
+      <c r="AL12" t="n">
+        <v>42.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2003,6 +2041,9 @@
       <c r="AK13" t="n">
         <v>63.62</v>
       </c>
+      <c r="AL13" t="n">
+        <v>61.79</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2118,6 +2159,9 @@
       <c r="AK14" t="n">
         <v>67.47</v>
       </c>
+      <c r="AL14" t="n">
+        <v>67.98</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2233,6 +2277,9 @@
       <c r="AK15" t="n">
         <v>53.25</v>
       </c>
+      <c r="AL15" t="n">
+        <v>52.38</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2348,6 +2395,9 @@
       <c r="AK16" t="n">
         <v>45.12</v>
       </c>
+      <c r="AL16" t="n">
+        <v>44.58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2463,6 +2513,9 @@
       <c r="AK17" t="n">
         <v>38.84</v>
       </c>
+      <c r="AL17" t="n">
+        <v>37.25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2578,6 +2631,9 @@
       <c r="AK18" t="n">
         <v>48.29</v>
       </c>
+      <c r="AL18" t="n">
+        <v>47.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2693,6 +2749,9 @@
       <c r="AK19" t="n">
         <v>33.66</v>
       </c>
+      <c r="AL19" t="n">
+        <v>33.52</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2808,6 +2867,9 @@
       <c r="AK20" t="n">
         <v>37.47</v>
       </c>
+      <c r="AL20" t="n">
+        <v>36.99</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2923,6 +2985,9 @@
       <c r="AK21" t="n">
         <v>53.72</v>
       </c>
+      <c r="AL21" t="n">
+        <v>55.23</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3038,6 +3103,9 @@
       <c r="AK22" t="n">
         <v>62.54</v>
       </c>
+      <c r="AL22" t="n">
+        <v>63.37</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3153,6 +3221,9 @@
       <c r="AK23" t="n">
         <v>62.12</v>
       </c>
+      <c r="AL23" t="n">
+        <v>60.78</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3268,6 +3339,9 @@
       <c r="AK24" t="n">
         <v>56.38</v>
       </c>
+      <c r="AL24" t="n">
+        <v>55.55</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3383,6 +3457,9 @@
       <c r="AK25" t="n">
         <v>36.73</v>
       </c>
+      <c r="AL25" t="n">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3498,6 +3575,9 @@
       <c r="AK26" t="n">
         <v>45</v>
       </c>
+      <c r="AL26" t="n">
+        <v>44.92</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3613,6 +3693,9 @@
       <c r="AK27" t="n">
         <v>55.19</v>
       </c>
+      <c r="AL27" t="n">
+        <v>57.02</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3728,6 +3811,9 @@
       <c r="AK28" t="n">
         <v>45.03</v>
       </c>
+      <c r="AL28" t="n">
+        <v>46.17</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3843,6 +3929,9 @@
       <c r="AK29" t="n">
         <v>34.88</v>
       </c>
+      <c r="AL29" t="n">
+        <v>35.36</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3958,6 +4047,9 @@
       <c r="AK30" t="n">
         <v>60.64</v>
       </c>
+      <c r="AL30" t="n">
+        <v>59.13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4073,6 +4165,9 @@
       <c r="AK31" t="n">
         <v>30.21</v>
       </c>
+      <c r="AL31" t="n">
+        <v>30.09</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4188,6 +4283,9 @@
       <c r="AK32" t="n">
         <v>48.35</v>
       </c>
+      <c r="AL32" t="n">
+        <v>48.83</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4303,6 +4401,9 @@
       <c r="AK33" t="n">
         <v>44.89</v>
       </c>
+      <c r="AL33" t="n">
+        <v>44.59</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4417,6 +4518,9 @@
       </c>
       <c r="AK34" t="n">
         <v>44.81</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>44.95</v>
       </c>
     </row>
   </sheetData>
